--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="10635" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="10635" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="节点" sheetId="1" r:id="rId1"/>
@@ -12,253 +12,14 @@
     <sheet name="红外遥控器键值" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">节点!$A$1:$P$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">节点!$A$1:$P$31</definedName>
   </definedNames>
-  <calcPr calcId="162912"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>ChangHao</author>
-  </authors>
-  <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ChangHao:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>节点编号，格式为：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>X-Y
-X</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：区域号。例如，厨房为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>；南卧为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>8</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">。
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Y</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：本区域内节点序号。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>－</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>9</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>顺序编号，一般不使用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>。
-节点编号与节点</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>的区别：
-节点编号：主要用来标识物理节点，可以打印成标签贴在电路板上。
-节点</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：主要用于</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>24L01</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>通讯时，子节点向主机发送数据的第一个字节，好让主机指定本帧数据来自于哪个节点。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="195">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,9 +100,6 @@
   </si>
   <si>
     <t>0-1</t>
-  </si>
-  <si>
-    <t>Pi智能家主机</t>
   </si>
   <si>
     <t>1</t>
@@ -1146,16 +904,52 @@
     <t>52 AD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号主机（Pi B型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号主机（Pi B+型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1196,26 +990,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1355,19 +1129,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1418,10 +1192,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1441,7 +1211,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,14 +1243,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1515,7 +1285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1547,10 +1317,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,7 +1351,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1758,14 +1526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor indexed="41"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1871,685 +1639,690 @@
         <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="16">
-        <f t="shared" ref="H4" si="0">E4+F4+G4</f>
-        <v>1</v>
-      </c>
       <c r="I4" s="15" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="15">
-        <v>11</v>
+        <v>194</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="H5" s="16">
-        <f t="shared" ref="H3:H30" si="1">E5+F5+G5</f>
-        <v>4</v>
+        <f t="shared" ref="H5" si="0">E5+F5+G5</f>
+        <v>1</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K5" s="15">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="16">
+        <v>35</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" ref="H6:H31" si="1">E6+F6+G6</f>
+        <v>4</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="16">
         <v>3</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F7" s="16">
         <v>1</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H7" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K7" s="15">
+        <v>22</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="15">
-        <v>22</v>
-      </c>
-      <c r="L6" s="15" t="s">
+      <c r="M7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="N7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="P7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="15" t="s">
+    </row>
+    <row r="8" spans="1:16" ht="27" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="27" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="15" t="s">
+      <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="15">
+      <c r="K8" s="15">
         <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="16">
-        <v>4</v>
-      </c>
-      <c r="H8" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="15">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E9" s="16">
-        <v>2</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K9" s="15">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E10" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H10" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K10" s="15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E11" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K11" s="15">
-        <v>41</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E12" s="16">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="15">
+        <v>41</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="16">
         <v>7</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="15">
-        <v>51</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="27" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="16">
-        <v>3</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K13" s="15">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E14" s="16">
-        <v>2</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K14" s="15">
-        <v>53</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K15" s="15">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K16" s="15">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>96</v>
+        <v>29</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="K17" s="15">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I19" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="15" t="s">
+    </row>
+    <row r="20" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="C20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="16">
         <v>4</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="15">
+      <c r="K20" s="15">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="16">
         <v>4</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="16">
         <v>1</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="16">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K21" s="15">
+        <v>82</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="K20" s="15">
-        <v>82</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="15">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="14.25" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="16">
         <v>1</v>
@@ -2559,243 +2332,243 @@
         <v>1</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K22" s="15">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.25" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E23" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="16">
         <v>2</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K23" s="15">
-        <v>91</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="16">
-        <v>4</v>
-      </c>
-      <c r="F24" s="16">
-        <v>1</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K24" s="15">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="14.25" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K25" s="15">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E26" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K26" s="15">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="14.25" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E27" s="16">
         <v>4</v>
       </c>
-      <c r="F27" s="16">
-        <v>1</v>
-      </c>
       <c r="H27" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K27" s="15">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="14.25" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16">
+        <v>4</v>
+      </c>
+      <c r="F28" s="16">
         <v>1</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K28" s="15">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="14.25" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="16">
         <v>1</v>
@@ -2805,45 +2578,75 @@
         <v>1</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="K29" s="15">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="16">
-        <v>3</v>
-      </c>
-      <c r="F30" s="16">
         <v>1</v>
       </c>
       <c r="H30" s="16">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="16">
+        <v>3</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I31" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="K30" s="15">
+      <c r="K31" s="15">
         <v>111</v>
       </c>
     </row>
@@ -2867,13 +2670,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -2881,8 +2682,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2896,10 +2697,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2916,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2933,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2947,10 +2748,10 @@
     </row>
     <row r="4" spans="1:11" ht="84">
       <c r="A4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2964,10 +2765,10 @@
     </row>
     <row r="5" spans="1:11" ht="120">
       <c r="A5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2981,10 +2782,10 @@
     </row>
     <row r="6" spans="1:11" ht="84">
       <c r="A6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3004,10 +2805,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3020,38 +2821,38 @@
   <sheetData>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="12">
         <v>41565</v>
@@ -3065,35 +2866,35 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="12">
         <v>8925</v>
@@ -3107,35 +2908,35 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="12">
         <v>57375</v>
@@ -3149,35 +2950,35 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="13">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="12">
         <v>26775</v>
@@ -3191,7 +2992,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="13">
         <v>1</v>
@@ -3205,21 +3006,21 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="12">
         <v>12495</v>
@@ -3233,7 +3034,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="13">
         <v>4</v>
@@ -3245,26 +3046,26 @@
         <v>6</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="12">
         <v>4335</v>
@@ -3278,7 +3079,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="13">
         <v>7</v>
@@ -3292,21 +3093,21 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="12">
         <v>17085</v>

--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="10635" windowHeight="12720"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">节点!$A$1:$P$31</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1156,9 +1156,6 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1174,9 +1171,12 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1211,7 +1211,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1243,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1541,10 +1541,10 @@
     <col min="1" max="1" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="15" customWidth="1"/>
-    <col min="5" max="6" width="7.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="15" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="7.75" style="16" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="17" customWidth="1"/>
     <col min="10" max="10" width="54.625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="15" bestFit="1" customWidth="1"/>
@@ -1556,54 +1556,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="21" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
@@ -1616,16 +1616,16 @@
       <c r="H2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" ht="14.25" customHeight="1">
+      <c r="I2" s="21"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27" customHeight="1">
+    <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1">
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1">
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1">
+    <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1">
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1">
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="27" customHeight="1">
+    <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1">
+    <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.25" customHeight="1">
+    <row r="17" spans="1:16" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.25" customHeight="1">
+    <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>92</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.25" customHeight="1">
+    <row r="19" spans="1:16" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.25" customHeight="1">
+    <row r="20" spans="1:16" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>103</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.25" customHeight="1">
+    <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>103</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.25" customHeight="1">
+    <row r="22" spans="1:16" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>103</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.25" customHeight="1">
+    <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>103</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.25" customHeight="1">
+    <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>115</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.25" customHeight="1">
+    <row r="26" spans="1:16" ht="15" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>115</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.25" customHeight="1">
+    <row r="27" spans="1:16" ht="15" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>126</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14.25" customHeight="1">
+    <row r="28" spans="1:16" ht="15" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>126</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.25" customHeight="1">
+    <row r="29" spans="1:16" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>126</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.25" customHeight="1">
+    <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>126</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="14.25" customHeight="1">
+    <row r="31" spans="1:16" ht="15" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>135</v>
       </c>
@@ -2652,6 +2652,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="L1:L2"/>
@@ -2660,11 +2665,6 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="10635" windowHeight="12720"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">节点!$A$1:$P$31</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="204">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>3-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制工作台下面的4位插座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -939,6 +935,44 @@
   <si>
     <t>2号主机（Pi B+型）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制书桌台灯(可调光LED)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -1156,6 +1190,9 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1171,12 +1208,9 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1211,7 +1245,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1533,7 +1567,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K9" sqref="K9:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1556,54 +1590,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="20" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
@@ -1616,14 +1650,14 @@
       <c r="H2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -1639,7 +1673,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>21</v>
@@ -1671,28 +1705,28 @@
         <v>19</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
@@ -1831,29 +1865,47 @@
         <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E9" s="16">
         <v>4</v>
       </c>
+      <c r="G9" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="H9" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>E9+F9+G9</f>
+        <v>5</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>54</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="15">
-        <v>31</v>
+        <v>201</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1">
@@ -1861,19 +1913,16 @@
         <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E10" s="16">
-        <v>2</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H10" s="16">
         <f t="shared" si="1"/>
@@ -1883,10 +1932,10 @@
         <v>58</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="15">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
@@ -1894,40 +1943,40 @@
         <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E11" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>62</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="15">
-        <v>33</v>
+        <v>59</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>19</v>
@@ -1946,10 +1995,10 @@
         <v>4</v>
       </c>
       <c r="I12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="K12" s="15">
         <v>41</v>
@@ -1958,21 +2007,21 @@
         <v>36</v>
       </c>
       <c r="M12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="O12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="P12" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>60</v>
@@ -1991,16 +2040,16 @@
         <v>7</v>
       </c>
       <c r="I13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="K13" s="15">
         <v>51</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>44</v>
@@ -2012,15 +2061,15 @@
         <v>46</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>19</v>
@@ -2039,21 +2088,36 @@
         <v>5</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="K14" s="15">
         <v>52</v>
       </c>
+      <c r="L14" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>61</v>
@@ -2072,16 +2136,16 @@
         <v>3</v>
       </c>
       <c r="I15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="K15" s="15">
         <v>53</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>44</v>
@@ -2098,10 +2162,10 @@
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>61</v>
@@ -2120,24 +2184,24 @@
         <v>4</v>
       </c>
       <c r="I16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="K16" s="15">
         <v>54</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>61</v>
@@ -2156,10 +2220,10 @@
         <v>2</v>
       </c>
       <c r="I17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="K17" s="15">
         <v>61</v>
@@ -2167,25 +2231,25 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="J18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>43</v>
@@ -2200,15 +2264,15 @@
         <v>46</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>19</v>
@@ -2224,21 +2288,21 @@
         <v>1</v>
       </c>
       <c r="I19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>61</v>
@@ -2254,10 +2318,10 @@
         <v>4</v>
       </c>
       <c r="I20" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="K20" s="15">
         <v>81</v>
@@ -2265,7 +2329,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>60</v>
@@ -2287,16 +2351,16 @@
         <v>5</v>
       </c>
       <c r="I21" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="K21" s="15">
         <v>82</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>44</v>
@@ -2308,15 +2372,15 @@
         <v>46</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>53</v>
@@ -2332,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="K22" s="15">
         <v>83</v>
@@ -2343,10 +2407,10 @@
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>19</v>
@@ -2362,10 +2426,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="K23" s="15">
         <v>84</v>
@@ -2373,10 +2437,10 @@
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>19</v>
@@ -2392,36 +2456,36 @@
         <v>2</v>
       </c>
       <c r="I24" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="K24" s="15">
         <v>91</v>
       </c>
       <c r="L24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>61</v>
@@ -2440,10 +2504,10 @@
         <v>5</v>
       </c>
       <c r="I25" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="K25" s="15">
         <v>92</v>
@@ -2466,10 +2530,10 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>19</v>
@@ -2485,10 +2549,10 @@
         <v>2</v>
       </c>
       <c r="I26" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="K26" s="15">
         <v>93</v>
@@ -2496,10 +2560,10 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>61</v>
@@ -2515,10 +2579,10 @@
         <v>4</v>
       </c>
       <c r="I27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="K27" s="15">
         <v>101</v>
@@ -2526,7 +2590,7 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>60</v>
@@ -2548,10 +2612,10 @@
         <v>5</v>
       </c>
       <c r="I28" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="K28" s="15">
         <v>102</v>
@@ -2559,10 +2623,10 @@
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>61</v>
@@ -2578,10 +2642,10 @@
         <v>1</v>
       </c>
       <c r="I29" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="K29" s="15">
         <v>103</v>
@@ -2589,10 +2653,10 @@
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>19</v>
@@ -2608,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K30" s="15">
         <v>104</v>
@@ -2619,10 +2683,10 @@
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>19</v>
@@ -2641,10 +2705,10 @@
         <v>4</v>
       </c>
       <c r="I31" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="K31" s="15">
         <v>111</v>
@@ -2652,11 +2716,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="L1:L2"/>
@@ -2665,6 +2724,11 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2684,7 +2748,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2697,10 +2761,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2717,7 +2781,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2734,7 +2798,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2748,10 +2812,10 @@
     </row>
     <row r="4" spans="1:11" ht="84">
       <c r="A4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2765,10 +2829,10 @@
     </row>
     <row r="5" spans="1:11" ht="120">
       <c r="A5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2782,10 +2846,10 @@
     </row>
     <row r="6" spans="1:11" ht="84">
       <c r="A6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2809,7 +2873,7 @@
   <dimension ref="A4:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2821,38 +2885,38 @@
   <sheetData>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="12">
         <v>41565</v>
@@ -2866,35 +2930,35 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="12">
         <v>8925</v>
@@ -2908,35 +2972,35 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="12">
         <v>57375</v>
@@ -2950,35 +3014,35 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="13">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="12">
         <v>26775</v>
@@ -2992,7 +3056,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="13">
         <v>1</v>
@@ -3006,21 +3070,21 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="12">
         <v>12495</v>
@@ -3034,7 +3098,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="13">
         <v>4</v>
@@ -3046,26 +3110,26 @@
         <v>6</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="12">
         <v>4335</v>
@@ -3079,7 +3143,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="13">
         <v>7</v>
@@ -3093,21 +3157,21 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="12">
         <v>17085</v>

--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="217">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,10 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检测卫生间是否有人，控制所有灯，排风扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,18 +471,6 @@
   </si>
   <si>
     <t>控制小厨宝、油汀，检测卫生间温度</t>
-  </si>
-  <si>
-    <t>吊顶里，热水器上方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制电热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10:北卧</t>
@@ -913,10 +897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>53</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -973,6 +953,78 @@
   </si>
   <si>
     <t>33</t>
+  </si>
+  <si>
+    <t>检测卫生间是否有人，控制电热水器、所有灯、排风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶里 （热水器上方,位置兼顾人体检测）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制书房灯带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前ID200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED数字钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1132,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,9 +1242,6 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1207,6 +1256,27 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,7 +1315,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,10 +1634,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor indexed="41"/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K11"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1585,59 +1655,63 @@
     <col min="12" max="12" width="10.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="6.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="30" customWidth="1"/>
     <col min="18" max="261" width="4.5" style="5" customWidth="1"/>
     <col min="262" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="21" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="Q1" s="28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
@@ -1650,16 +1724,17 @@
       <c r="H2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+      <c r="I2" s="21"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="29"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1673,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>21</v>
@@ -1694,7 +1769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1705,31 +1780,31 @@
         <v>19</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O4" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1759,7 +1834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1789,7 +1864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1837,7 +1912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1860,7 +1935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -1887,28 +1962,28 @@
         <v>54</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -1935,48 +2010,35 @@
         <v>55</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>19</v>
@@ -1995,109 +2057,112 @@
         <v>4</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="15">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
+        <v>209</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E13" s="16">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K13" s="15">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E14" s="16">
-        <v>3</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K14" s="15">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>44</v>
@@ -2109,43 +2174,43 @@
         <v>46</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E15" s="16">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K15" s="15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>44</v>
@@ -2157,15 +2222,15 @@
         <v>46</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>61</v>
@@ -2174,34 +2239,46 @@
         <v>29</v>
       </c>
       <c r="E16" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="16">
         <v>1</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K16" s="15">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>61</v>
@@ -2210,121 +2287,127 @@
         <v>29</v>
       </c>
       <c r="E17" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K17" s="15">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>94</v>
+        <v>29</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="K18" s="15">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K20" s="15" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="16">
-        <v>4</v>
-      </c>
-      <c r="H20" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="15">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1">
@@ -2332,7 +2415,7 @@
         <v>102</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>61</v>
@@ -2343,36 +2426,18 @@
       <c r="E21" s="16">
         <v>4</v>
       </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
       <c r="H21" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K21" s="15">
-        <v>82</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1">
@@ -2380,29 +2445,47 @@
         <v>102</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" s="16">
+        <v>4</v>
+      </c>
+      <c r="F22" s="16">
         <v>1</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K22" s="15">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
@@ -2410,10 +2493,10 @@
         <v>102</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>29</v>
@@ -2426,58 +2509,43 @@
         <v>1</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K23" s="15">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E24" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K24" s="15">
-        <v>91</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
@@ -2485,47 +2553,44 @@
         <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E25" s="16">
-        <v>4</v>
-      </c>
-      <c r="F25" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="K25" s="15">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1">
@@ -2533,34 +2598,52 @@
         <v>114</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E26" s="16">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
       </c>
       <c r="H26" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K26" s="15">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>103</v>
@@ -2579,10 +2662,10 @@
         <v>4</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K27" s="15">
         <v>101</v>
@@ -2590,7 +2673,7 @@
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>60</v>
@@ -2612,10 +2695,10 @@
         <v>5</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K28" s="15">
         <v>102</v>
@@ -2623,10 +2706,10 @@
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>61</v>
@@ -2642,10 +2725,10 @@
         <v>1</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K29" s="15">
         <v>103</v>
@@ -2653,7 +2736,7 @@
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>98</v>
@@ -2672,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>113</v>
@@ -2683,10 +2766,10 @@
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>19</v>
@@ -2705,17 +2788,46 @@
         <v>4</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K31" s="15">
         <v>111</v>
       </c>
     </row>
+    <row r="32" spans="1:16">
+      <c r="J32" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="L1:L2"/>
@@ -2724,11 +2836,6 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2761,10 +2868,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2781,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2798,7 +2905,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2812,10 +2919,10 @@
     </row>
     <row r="4" spans="1:11" ht="84">
       <c r="A4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2829,10 +2936,10 @@
     </row>
     <row r="5" spans="1:11" ht="120">
       <c r="A5" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2846,10 +2953,10 @@
     </row>
     <row r="6" spans="1:11" ht="84">
       <c r="A6" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2885,38 +2992,38 @@
   <sheetData>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B6" s="12">
         <v>41565</v>
@@ -2930,35 +3037,35 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B10" s="12">
         <v>8925</v>
@@ -2972,35 +3079,35 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B14" s="12">
         <v>57375</v>
@@ -3014,35 +3121,35 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B16" s="13">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B18" s="12">
         <v>26775</v>
@@ -3056,7 +3163,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B20" s="13">
         <v>1</v>
@@ -3070,21 +3177,21 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B22" s="12">
         <v>12495</v>
@@ -3098,7 +3205,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B24" s="13">
         <v>4</v>
@@ -3110,26 +3217,26 @@
         <v>6</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B26" s="12">
         <v>4335</v>
@@ -3143,7 +3250,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B28" s="13">
         <v>7</v>
@@ -3157,21 +3264,21 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B30" s="12">
         <v>17085</v>

--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="214">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -889,43 +889,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号主机（Pi B型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号主机（Pi B+型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1号主机（Pi B型）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号主机（Pi B+型）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制书桌台灯(可调光LED)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>检测卫生间是否有人，控制电热水器、所有灯、排风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶里 （热水器上方,位置兼顾人体检测）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制书房灯带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -933,97 +967,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前ID200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED数字钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>92</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制书桌台灯(可调光LED)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>检测卫生间是否有人，控制电热水器、所有灯、排风扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊顶里 （热水器上方,位置兼顾人体检测）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊顶里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制书房灯带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前ID200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED数字钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验频道92，地址（53，70，132）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1242,6 +1230,21 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1252,31 +1255,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,7 +1303,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1625,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1655,63 +1643,63 @@
     <col min="12" max="12" width="10.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="6.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="30" customWidth="1"/>
+    <col min="17" max="17" width="35" style="19" bestFit="1" customWidth="1"/>
     <col min="18" max="261" width="4.5" style="5" customWidth="1"/>
     <col min="262" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="20" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="28" t="s">
-        <v>211</v>
+      <c r="Q1" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
@@ -1724,15 +1712,15 @@
       <c r="H2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="29"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -1748,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>21</v>
@@ -1783,25 +1771,28 @@
         <v>181</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="M4" s="15" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>186</v>
+        <v>26</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
@@ -1962,25 +1953,25 @@
         <v>54</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K9" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="O9" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="L9" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="P9" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
@@ -2010,7 +2001,7 @@
         <v>55</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
@@ -2018,19 +2009,19 @@
         <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1">
@@ -2063,25 +2054,25 @@
         <v>59</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L12" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="P12" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="Q12" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
@@ -2210,7 +2201,7 @@
         <v>52</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>44</v>
@@ -2222,7 +2213,7 @@
         <v>46</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1">
@@ -2553,7 +2544,7 @@
         <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>19</v>
@@ -2572,7 +2563,7 @@
         <v>115</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K25" s="15">
         <v>91</v>
@@ -2799,25 +2790,25 @@
     </row>
     <row r="32" spans="1:16">
       <c r="J32" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="P32" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="节点" sheetId="1" r:id="rId1"/>
     <sheet name="说明" sheetId="2" r:id="rId2"/>
-    <sheet name="红外遥控器键值" sheetId="4" r:id="rId3"/>
+    <sheet name="通讯频道" sheetId="5" r:id="rId3"/>
+    <sheet name="红外遥控器键值" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">节点!$A$1:$P$31</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="228">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,6 +1015,57 @@
     <t>实验频道92，地址（53，70，132）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Score</t>
+  </si>
+  <si>
+    <t>Total 1</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Total 2</t>
+  </si>
+  <si>
+    <t>Total 3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total 4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块2－红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块1－红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块3－黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块4－黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个频道上的分数越低，说明这个频道通讯质量越高，以下列出一些比较好的通讯频道：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1023,7 +1075,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1087,8 +1139,45 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,8 +1196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1166,13 +1261,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,6 +1370,27 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1303,7 +1428,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1750,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2968,6 +3093,7169 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="33"/>
+    <col min="16" max="16" width="9" style="34"/>
+    <col min="17" max="16384" width="9" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.25">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>65</v>
+      </c>
+      <c r="C3" s="33">
+        <v>45</v>
+      </c>
+      <c r="D3" s="33">
+        <v>45</v>
+      </c>
+      <c r="E3" s="34">
+        <v>155</v>
+      </c>
+      <c r="F3" s="33">
+        <v>100</v>
+      </c>
+      <c r="G3" s="33">
+        <v>85</v>
+      </c>
+      <c r="H3" s="33">
+        <v>100</v>
+      </c>
+      <c r="I3" s="34">
+        <v>285</v>
+      </c>
+      <c r="J3" s="33">
+        <v>100</v>
+      </c>
+      <c r="K3" s="33">
+        <v>100</v>
+      </c>
+      <c r="L3" s="33">
+        <v>100</v>
+      </c>
+      <c r="M3" s="34">
+        <f>J3+K3+L3</f>
+        <v>300</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3" s="34">
+        <f>N3+O3</f>
+        <v>200</v>
+      </c>
+      <c r="Q3" s="33">
+        <f>E3+I3+M3+P3</f>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.25">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33">
+        <v>100</v>
+      </c>
+      <c r="C4" s="33">
+        <v>80</v>
+      </c>
+      <c r="D4" s="33">
+        <v>35</v>
+      </c>
+      <c r="E4" s="34">
+        <v>215</v>
+      </c>
+      <c r="F4" s="33">
+        <v>75</v>
+      </c>
+      <c r="G4" s="33">
+        <v>40</v>
+      </c>
+      <c r="H4" s="33">
+        <v>40</v>
+      </c>
+      <c r="I4" s="34">
+        <v>155</v>
+      </c>
+      <c r="J4" s="33">
+        <v>100</v>
+      </c>
+      <c r="K4" s="33">
+        <v>100</v>
+      </c>
+      <c r="L4" s="33">
+        <v>100</v>
+      </c>
+      <c r="M4" s="34">
+        <f>J4+K4+L4</f>
+        <v>300</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4" s="34">
+        <f>N4+O4</f>
+        <v>200</v>
+      </c>
+      <c r="Q4" s="33">
+        <f>E4+I4+M4+P4</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.25">
+      <c r="A5" s="33">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33">
+        <v>35</v>
+      </c>
+      <c r="C5" s="33">
+        <v>80</v>
+      </c>
+      <c r="D5" s="33">
+        <v>35</v>
+      </c>
+      <c r="E5" s="34">
+        <v>150</v>
+      </c>
+      <c r="F5" s="33">
+        <v>80</v>
+      </c>
+      <c r="G5" s="33">
+        <v>100</v>
+      </c>
+      <c r="H5" s="33">
+        <v>80</v>
+      </c>
+      <c r="I5" s="34">
+        <v>260</v>
+      </c>
+      <c r="J5" s="33">
+        <v>100</v>
+      </c>
+      <c r="K5" s="33">
+        <v>100</v>
+      </c>
+      <c r="L5" s="33">
+        <v>100</v>
+      </c>
+      <c r="M5" s="34">
+        <f>J5+K5+L5</f>
+        <v>300</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5" s="34">
+        <f>N5+O5</f>
+        <v>200</v>
+      </c>
+      <c r="Q5" s="33">
+        <f>E5+I5+M5+P5</f>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.25">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33">
+        <v>80</v>
+      </c>
+      <c r="C6" s="33">
+        <v>65</v>
+      </c>
+      <c r="D6" s="33">
+        <v>10</v>
+      </c>
+      <c r="E6" s="34">
+        <v>155</v>
+      </c>
+      <c r="F6" s="33">
+        <v>70</v>
+      </c>
+      <c r="G6" s="33">
+        <v>100</v>
+      </c>
+      <c r="H6" s="33">
+        <v>60</v>
+      </c>
+      <c r="I6" s="34">
+        <v>230</v>
+      </c>
+      <c r="J6" s="33">
+        <v>100</v>
+      </c>
+      <c r="K6" s="33">
+        <v>100</v>
+      </c>
+      <c r="L6" s="33">
+        <v>100</v>
+      </c>
+      <c r="M6" s="34">
+        <f>J6+K6+L6</f>
+        <v>300</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6" s="34">
+        <f>N6+O6</f>
+        <v>200</v>
+      </c>
+      <c r="Q6" s="33">
+        <f>E6+I6+M6+P6</f>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.25">
+      <c r="A7" s="33">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33">
+        <v>95</v>
+      </c>
+      <c r="C7" s="33">
+        <v>30</v>
+      </c>
+      <c r="D7" s="33">
+        <v>50</v>
+      </c>
+      <c r="E7" s="34">
+        <v>175</v>
+      </c>
+      <c r="F7" s="33">
+        <v>40</v>
+      </c>
+      <c r="G7" s="33">
+        <v>100</v>
+      </c>
+      <c r="H7" s="33">
+        <v>55</v>
+      </c>
+      <c r="I7" s="34">
+        <v>195</v>
+      </c>
+      <c r="J7" s="33">
+        <v>100</v>
+      </c>
+      <c r="K7" s="33">
+        <v>100</v>
+      </c>
+      <c r="L7" s="33">
+        <v>100</v>
+      </c>
+      <c r="M7" s="34">
+        <f>J7+K7+L7</f>
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7" s="34">
+        <f>N7+O7</f>
+        <v>200</v>
+      </c>
+      <c r="Q7" s="33">
+        <f>E7+I7+M7+P7</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.25">
+      <c r="A8" s="33">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33">
+        <v>70</v>
+      </c>
+      <c r="C8" s="33">
+        <v>85</v>
+      </c>
+      <c r="D8" s="33">
+        <v>100</v>
+      </c>
+      <c r="E8" s="34">
+        <v>255</v>
+      </c>
+      <c r="F8" s="33">
+        <v>55</v>
+      </c>
+      <c r="G8" s="33">
+        <v>85</v>
+      </c>
+      <c r="H8" s="33">
+        <v>45</v>
+      </c>
+      <c r="I8" s="34">
+        <v>185</v>
+      </c>
+      <c r="J8" s="33">
+        <v>100</v>
+      </c>
+      <c r="K8" s="33">
+        <v>100</v>
+      </c>
+      <c r="L8" s="33">
+        <v>100</v>
+      </c>
+      <c r="M8" s="34">
+        <f>J8+K8+L8</f>
+        <v>300</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8" s="34">
+        <f>N8+O8</f>
+        <v>200</v>
+      </c>
+      <c r="Q8" s="33">
+        <f>E8+I8+M8+P8</f>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="14.25">
+      <c r="A9" s="33">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33">
+        <v>100</v>
+      </c>
+      <c r="C9" s="33">
+        <v>45</v>
+      </c>
+      <c r="D9" s="33">
+        <v>100</v>
+      </c>
+      <c r="E9" s="34">
+        <v>245</v>
+      </c>
+      <c r="F9" s="33">
+        <v>100</v>
+      </c>
+      <c r="G9" s="33">
+        <v>100</v>
+      </c>
+      <c r="H9" s="33">
+        <v>100</v>
+      </c>
+      <c r="I9" s="34">
+        <v>300</v>
+      </c>
+      <c r="J9" s="33">
+        <v>100</v>
+      </c>
+      <c r="K9" s="33">
+        <v>100</v>
+      </c>
+      <c r="L9" s="33">
+        <v>100</v>
+      </c>
+      <c r="M9" s="34">
+        <f>J9+K9+L9</f>
+        <v>300</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9" s="34">
+        <f>N9+O9</f>
+        <v>200</v>
+      </c>
+      <c r="Q9" s="33">
+        <f>E9+I9+M9+P9</f>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.25">
+      <c r="A10" s="33">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33">
+        <v>55</v>
+      </c>
+      <c r="C10" s="33">
+        <v>65</v>
+      </c>
+      <c r="D10" s="33">
+        <v>50</v>
+      </c>
+      <c r="E10" s="34">
+        <v>170</v>
+      </c>
+      <c r="F10" s="33">
+        <v>100</v>
+      </c>
+      <c r="G10" s="33">
+        <v>100</v>
+      </c>
+      <c r="H10" s="33">
+        <v>100</v>
+      </c>
+      <c r="I10" s="34">
+        <v>300</v>
+      </c>
+      <c r="J10" s="33">
+        <v>100</v>
+      </c>
+      <c r="K10" s="33">
+        <v>100</v>
+      </c>
+      <c r="L10" s="33">
+        <v>100</v>
+      </c>
+      <c r="M10" s="34">
+        <f>J10+K10+L10</f>
+        <v>300</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10" s="34">
+        <f>N10+O10</f>
+        <v>200</v>
+      </c>
+      <c r="Q10" s="33">
+        <f>E10+I10+M10+P10</f>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14.25">
+      <c r="A11" s="33">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33">
+        <v>100</v>
+      </c>
+      <c r="C11" s="33">
+        <v>40</v>
+      </c>
+      <c r="D11" s="33">
+        <v>40</v>
+      </c>
+      <c r="E11" s="34">
+        <v>180</v>
+      </c>
+      <c r="F11" s="33">
+        <v>55</v>
+      </c>
+      <c r="G11" s="33">
+        <v>100</v>
+      </c>
+      <c r="H11" s="33">
+        <v>80</v>
+      </c>
+      <c r="I11" s="34">
+        <v>235</v>
+      </c>
+      <c r="J11" s="33">
+        <v>100</v>
+      </c>
+      <c r="K11" s="33">
+        <v>100</v>
+      </c>
+      <c r="L11" s="33">
+        <v>100</v>
+      </c>
+      <c r="M11" s="34">
+        <f>J11+K11+L11</f>
+        <v>300</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11" s="34">
+        <f>N11+O11</f>
+        <v>200</v>
+      </c>
+      <c r="Q11" s="33">
+        <f>E11+I11+M11+P11</f>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14.25">
+      <c r="A12" s="33">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33">
+        <v>100</v>
+      </c>
+      <c r="C12" s="33">
+        <v>100</v>
+      </c>
+      <c r="D12" s="33">
+        <v>55</v>
+      </c>
+      <c r="E12" s="34">
+        <v>255</v>
+      </c>
+      <c r="F12" s="33">
+        <v>65</v>
+      </c>
+      <c r="G12" s="33">
+        <v>100</v>
+      </c>
+      <c r="H12" s="33">
+        <v>100</v>
+      </c>
+      <c r="I12" s="34">
+        <v>265</v>
+      </c>
+      <c r="J12" s="33">
+        <v>100</v>
+      </c>
+      <c r="K12" s="33">
+        <v>100</v>
+      </c>
+      <c r="L12" s="33">
+        <v>100</v>
+      </c>
+      <c r="M12" s="34">
+        <f>J12+K12+L12</f>
+        <v>300</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12" s="34">
+        <f>N12+O12</f>
+        <v>200</v>
+      </c>
+      <c r="Q12" s="33">
+        <f>E12+I12+M12+P12</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14.25">
+      <c r="A13" s="33">
+        <v>11</v>
+      </c>
+      <c r="B13" s="33">
+        <v>100</v>
+      </c>
+      <c r="C13" s="33">
+        <v>100</v>
+      </c>
+      <c r="D13" s="33">
+        <v>75</v>
+      </c>
+      <c r="E13" s="34">
+        <v>275</v>
+      </c>
+      <c r="F13" s="33">
+        <v>100</v>
+      </c>
+      <c r="G13" s="33">
+        <v>100</v>
+      </c>
+      <c r="H13" s="33">
+        <v>100</v>
+      </c>
+      <c r="I13" s="34">
+        <v>300</v>
+      </c>
+      <c r="J13" s="33">
+        <v>100</v>
+      </c>
+      <c r="K13" s="33">
+        <v>100</v>
+      </c>
+      <c r="L13" s="33">
+        <v>100</v>
+      </c>
+      <c r="M13" s="34">
+        <f>J13+K13+L13</f>
+        <v>300</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13" s="34">
+        <f>N13+O13</f>
+        <v>200</v>
+      </c>
+      <c r="Q13" s="33">
+        <f>E13+I13+M13+P13</f>
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14.25">
+      <c r="A14" s="33">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33">
+        <v>100</v>
+      </c>
+      <c r="C14" s="33">
+        <v>100</v>
+      </c>
+      <c r="D14" s="33">
+        <v>90</v>
+      </c>
+      <c r="E14" s="34">
+        <v>290</v>
+      </c>
+      <c r="F14" s="33">
+        <v>100</v>
+      </c>
+      <c r="G14" s="33">
+        <v>100</v>
+      </c>
+      <c r="H14" s="33">
+        <v>100</v>
+      </c>
+      <c r="I14" s="34">
+        <v>300</v>
+      </c>
+      <c r="J14" s="33">
+        <v>100</v>
+      </c>
+      <c r="K14" s="33">
+        <v>100</v>
+      </c>
+      <c r="L14" s="33">
+        <v>100</v>
+      </c>
+      <c r="M14" s="34">
+        <f>J14+K14+L14</f>
+        <v>300</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14" s="34">
+        <f>N14+O14</f>
+        <v>200</v>
+      </c>
+      <c r="Q14" s="33">
+        <f>E14+I14+M14+P14</f>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.25">
+      <c r="A15" s="33">
+        <v>13</v>
+      </c>
+      <c r="B15" s="33">
+        <v>80</v>
+      </c>
+      <c r="C15" s="33">
+        <v>65</v>
+      </c>
+      <c r="D15" s="33">
+        <v>60</v>
+      </c>
+      <c r="E15" s="34">
+        <v>205</v>
+      </c>
+      <c r="F15" s="33">
+        <v>35</v>
+      </c>
+      <c r="G15" s="33">
+        <v>100</v>
+      </c>
+      <c r="H15" s="33">
+        <v>95</v>
+      </c>
+      <c r="I15" s="34">
+        <v>230</v>
+      </c>
+      <c r="J15" s="33">
+        <v>100</v>
+      </c>
+      <c r="K15" s="33">
+        <v>100</v>
+      </c>
+      <c r="L15" s="33">
+        <v>100</v>
+      </c>
+      <c r="M15" s="34">
+        <f>J15+K15+L15</f>
+        <v>300</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15" s="34">
+        <f>N15+O15</f>
+        <v>200</v>
+      </c>
+      <c r="Q15" s="33">
+        <f>E15+I15+M15+P15</f>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14.25">
+      <c r="A16" s="33">
+        <v>14</v>
+      </c>
+      <c r="B16" s="33">
+        <v>30</v>
+      </c>
+      <c r="C16" s="33">
+        <v>30</v>
+      </c>
+      <c r="D16" s="33">
+        <v>100</v>
+      </c>
+      <c r="E16" s="34">
+        <v>160</v>
+      </c>
+      <c r="F16" s="33">
+        <v>40</v>
+      </c>
+      <c r="G16" s="33">
+        <v>95</v>
+      </c>
+      <c r="H16" s="33">
+        <v>55</v>
+      </c>
+      <c r="I16" s="34">
+        <v>190</v>
+      </c>
+      <c r="J16" s="33">
+        <v>100</v>
+      </c>
+      <c r="K16" s="33">
+        <v>100</v>
+      </c>
+      <c r="L16" s="33">
+        <v>100</v>
+      </c>
+      <c r="M16" s="34">
+        <f>J16+K16+L16</f>
+        <v>300</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16" s="34">
+        <f>N16+O16</f>
+        <v>200</v>
+      </c>
+      <c r="Q16" s="33">
+        <f>E16+I16+M16+P16</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14.25">
+      <c r="A17" s="33">
+        <v>15</v>
+      </c>
+      <c r="B17" s="33">
+        <v>20</v>
+      </c>
+      <c r="C17" s="33">
+        <v>20</v>
+      </c>
+      <c r="D17" s="33">
+        <v>20</v>
+      </c>
+      <c r="E17" s="34">
+        <v>60</v>
+      </c>
+      <c r="F17" s="33">
+        <v>30</v>
+      </c>
+      <c r="G17" s="33">
+        <v>40</v>
+      </c>
+      <c r="H17" s="33">
+        <v>35</v>
+      </c>
+      <c r="I17" s="34">
+        <v>105</v>
+      </c>
+      <c r="J17" s="33">
+        <v>100</v>
+      </c>
+      <c r="K17" s="33">
+        <v>100</v>
+      </c>
+      <c r="L17" s="33">
+        <v>100</v>
+      </c>
+      <c r="M17" s="34">
+        <f>J17+K17+L17</f>
+        <v>300</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17" s="34">
+        <f>N17+O17</f>
+        <v>200</v>
+      </c>
+      <c r="Q17" s="33">
+        <f>E17+I17+M17+P17</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="14.25">
+      <c r="A18" s="33">
+        <v>16</v>
+      </c>
+      <c r="B18" s="33">
+        <v>40</v>
+      </c>
+      <c r="C18" s="33">
+        <v>35</v>
+      </c>
+      <c r="D18" s="33">
+        <v>60</v>
+      </c>
+      <c r="E18" s="34">
+        <v>135</v>
+      </c>
+      <c r="F18" s="33">
+        <v>30</v>
+      </c>
+      <c r="G18" s="33">
+        <v>75</v>
+      </c>
+      <c r="H18" s="33">
+        <v>45</v>
+      </c>
+      <c r="I18" s="34">
+        <v>150</v>
+      </c>
+      <c r="J18" s="33">
+        <v>100</v>
+      </c>
+      <c r="K18" s="33">
+        <v>100</v>
+      </c>
+      <c r="L18" s="33">
+        <v>100</v>
+      </c>
+      <c r="M18" s="34">
+        <f>J18+K18+L18</f>
+        <v>300</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18" s="34">
+        <f>N18+O18</f>
+        <v>200</v>
+      </c>
+      <c r="Q18" s="33">
+        <f>E18+I18+M18+P18</f>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="14.25">
+      <c r="A19" s="33">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33">
+        <v>15</v>
+      </c>
+      <c r="C19" s="33">
+        <v>45</v>
+      </c>
+      <c r="D19" s="33">
+        <v>100</v>
+      </c>
+      <c r="E19" s="34">
+        <v>160</v>
+      </c>
+      <c r="F19" s="33">
+        <v>40</v>
+      </c>
+      <c r="G19" s="33">
+        <v>20</v>
+      </c>
+      <c r="H19" s="33">
+        <v>45</v>
+      </c>
+      <c r="I19" s="34">
+        <v>105</v>
+      </c>
+      <c r="J19" s="33">
+        <v>100</v>
+      </c>
+      <c r="K19" s="33">
+        <v>100</v>
+      </c>
+      <c r="L19" s="33">
+        <v>100</v>
+      </c>
+      <c r="M19" s="34">
+        <f>J19+K19+L19</f>
+        <v>300</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19" s="34">
+        <f>N19+O19</f>
+        <v>200</v>
+      </c>
+      <c r="Q19" s="33">
+        <f>E19+I19+M19+P19</f>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14.25">
+      <c r="A20" s="33">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33">
+        <v>50</v>
+      </c>
+      <c r="C20" s="33">
+        <v>35</v>
+      </c>
+      <c r="D20" s="33">
+        <v>50</v>
+      </c>
+      <c r="E20" s="34">
+        <v>135</v>
+      </c>
+      <c r="F20" s="33">
+        <v>15</v>
+      </c>
+      <c r="G20" s="33">
+        <v>15</v>
+      </c>
+      <c r="H20" s="33">
+        <v>100</v>
+      </c>
+      <c r="I20" s="34">
+        <v>130</v>
+      </c>
+      <c r="J20" s="33">
+        <v>100</v>
+      </c>
+      <c r="K20" s="33">
+        <v>100</v>
+      </c>
+      <c r="L20" s="33">
+        <v>100</v>
+      </c>
+      <c r="M20" s="34">
+        <f>J20+K20+L20</f>
+        <v>300</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20" s="34">
+        <f>N20+O20</f>
+        <v>200</v>
+      </c>
+      <c r="Q20" s="33">
+        <f>E20+I20+M20+P20</f>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="14.25">
+      <c r="A21" s="33">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33">
+        <v>25</v>
+      </c>
+      <c r="C21" s="33">
+        <v>25</v>
+      </c>
+      <c r="D21" s="33">
+        <v>35</v>
+      </c>
+      <c r="E21" s="34">
+        <v>85</v>
+      </c>
+      <c r="F21" s="33">
+        <v>100</v>
+      </c>
+      <c r="G21" s="33">
+        <v>15</v>
+      </c>
+      <c r="H21" s="33">
+        <v>100</v>
+      </c>
+      <c r="I21" s="34">
+        <v>215</v>
+      </c>
+      <c r="J21" s="33">
+        <v>100</v>
+      </c>
+      <c r="K21" s="33">
+        <v>90</v>
+      </c>
+      <c r="L21" s="33">
+        <v>100</v>
+      </c>
+      <c r="M21" s="34">
+        <f>J21+K21+L21</f>
+        <v>290</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21" s="34">
+        <f>N21+O21</f>
+        <v>200</v>
+      </c>
+      <c r="Q21" s="33">
+        <f>E21+I21+M21+P21</f>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="14.25">
+      <c r="A22" s="33">
+        <v>20</v>
+      </c>
+      <c r="B22" s="33">
+        <v>100</v>
+      </c>
+      <c r="C22" s="33">
+        <v>100</v>
+      </c>
+      <c r="D22" s="33">
+        <v>100</v>
+      </c>
+      <c r="E22" s="34">
+        <v>300</v>
+      </c>
+      <c r="F22" s="33">
+        <v>25</v>
+      </c>
+      <c r="G22" s="33">
+        <v>100</v>
+      </c>
+      <c r="H22" s="33">
+        <v>100</v>
+      </c>
+      <c r="I22" s="34">
+        <v>225</v>
+      </c>
+      <c r="J22" s="33">
+        <v>100</v>
+      </c>
+      <c r="K22" s="33">
+        <v>100</v>
+      </c>
+      <c r="L22" s="33">
+        <v>100</v>
+      </c>
+      <c r="M22" s="34">
+        <f>J22+K22+L22</f>
+        <v>300</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="P22" s="34">
+        <f>N22+O22</f>
+        <v>200</v>
+      </c>
+      <c r="Q22" s="33">
+        <f>E22+I22+M22+P22</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="14.25">
+      <c r="A23" s="33">
+        <v>21</v>
+      </c>
+      <c r="B23" s="33">
+        <v>45</v>
+      </c>
+      <c r="C23" s="33">
+        <v>90</v>
+      </c>
+      <c r="D23" s="33">
+        <v>100</v>
+      </c>
+      <c r="E23" s="34">
+        <v>235</v>
+      </c>
+      <c r="F23" s="33">
+        <v>100</v>
+      </c>
+      <c r="G23" s="33">
+        <v>95</v>
+      </c>
+      <c r="H23" s="33">
+        <v>25</v>
+      </c>
+      <c r="I23" s="34">
+        <v>220</v>
+      </c>
+      <c r="J23" s="33">
+        <v>100</v>
+      </c>
+      <c r="K23" s="33">
+        <v>100</v>
+      </c>
+      <c r="L23" s="33">
+        <v>100</v>
+      </c>
+      <c r="M23" s="34">
+        <f>J23+K23+L23</f>
+        <v>300</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="P23" s="34">
+        <f>N23+O23</f>
+        <v>200</v>
+      </c>
+      <c r="Q23" s="33">
+        <f>E23+I23+M23+P23</f>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="14.25">
+      <c r="A24" s="33">
+        <v>22</v>
+      </c>
+      <c r="B24" s="33">
+        <v>15</v>
+      </c>
+      <c r="C24" s="33">
+        <v>75</v>
+      </c>
+      <c r="D24" s="33">
+        <v>100</v>
+      </c>
+      <c r="E24" s="34">
+        <v>190</v>
+      </c>
+      <c r="F24" s="33">
+        <v>40</v>
+      </c>
+      <c r="G24" s="33">
+        <v>50</v>
+      </c>
+      <c r="H24" s="33">
+        <v>50</v>
+      </c>
+      <c r="I24" s="34">
+        <v>140</v>
+      </c>
+      <c r="J24" s="33">
+        <v>100</v>
+      </c>
+      <c r="K24" s="33">
+        <v>100</v>
+      </c>
+      <c r="L24" s="33">
+        <v>100</v>
+      </c>
+      <c r="M24" s="34">
+        <f>J24+K24+L24</f>
+        <v>300</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="P24" s="34">
+        <f>N24+O24</f>
+        <v>200</v>
+      </c>
+      <c r="Q24" s="33">
+        <f>E24+I24+M24+P24</f>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14.25">
+      <c r="A25" s="33">
+        <v>23</v>
+      </c>
+      <c r="B25" s="33">
+        <v>45</v>
+      </c>
+      <c r="C25" s="33">
+        <v>65</v>
+      </c>
+      <c r="D25" s="33">
+        <v>100</v>
+      </c>
+      <c r="E25" s="34">
+        <v>210</v>
+      </c>
+      <c r="F25" s="33">
+        <v>35</v>
+      </c>
+      <c r="G25" s="33">
+        <v>100</v>
+      </c>
+      <c r="H25" s="33">
+        <v>25</v>
+      </c>
+      <c r="I25" s="34">
+        <v>160</v>
+      </c>
+      <c r="J25" s="33">
+        <v>100</v>
+      </c>
+      <c r="K25" s="33">
+        <v>100</v>
+      </c>
+      <c r="L25" s="33">
+        <v>100</v>
+      </c>
+      <c r="M25" s="34">
+        <f>J25+K25+L25</f>
+        <v>300</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="P25" s="34">
+        <f>N25+O25</f>
+        <v>200</v>
+      </c>
+      <c r="Q25" s="33">
+        <f>E25+I25+M25+P25</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="14.25">
+      <c r="A26" s="33">
+        <v>24</v>
+      </c>
+      <c r="B26" s="33">
+        <v>15</v>
+      </c>
+      <c r="C26" s="33">
+        <v>15</v>
+      </c>
+      <c r="D26" s="33">
+        <v>40</v>
+      </c>
+      <c r="E26" s="34">
+        <v>70</v>
+      </c>
+      <c r="F26" s="33">
+        <v>30</v>
+      </c>
+      <c r="G26" s="33">
+        <v>100</v>
+      </c>
+      <c r="H26" s="33">
+        <v>25</v>
+      </c>
+      <c r="I26" s="34">
+        <v>155</v>
+      </c>
+      <c r="J26" s="33">
+        <v>100</v>
+      </c>
+      <c r="K26" s="33">
+        <v>100</v>
+      </c>
+      <c r="L26" s="33">
+        <v>100</v>
+      </c>
+      <c r="M26" s="34">
+        <f>J26+K26+L26</f>
+        <v>300</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="P26" s="34">
+        <f>N26+O26</f>
+        <v>200</v>
+      </c>
+      <c r="Q26" s="33">
+        <f>E26+I26+M26+P26</f>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="14.25">
+      <c r="A27" s="33">
+        <v>25</v>
+      </c>
+      <c r="B27" s="33">
+        <v>20</v>
+      </c>
+      <c r="C27" s="33">
+        <v>25</v>
+      </c>
+      <c r="D27" s="33">
+        <v>80</v>
+      </c>
+      <c r="E27" s="34">
+        <v>125</v>
+      </c>
+      <c r="F27" s="33">
+        <v>20</v>
+      </c>
+      <c r="G27" s="33">
+        <v>100</v>
+      </c>
+      <c r="H27" s="33">
+        <v>5</v>
+      </c>
+      <c r="I27" s="34">
+        <v>125</v>
+      </c>
+      <c r="J27" s="33">
+        <v>100</v>
+      </c>
+      <c r="K27" s="33">
+        <v>100</v>
+      </c>
+      <c r="L27" s="33">
+        <v>100</v>
+      </c>
+      <c r="M27" s="34">
+        <f>J27+K27+L27</f>
+        <v>300</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="P27" s="34">
+        <f>N27+O27</f>
+        <v>200</v>
+      </c>
+      <c r="Q27" s="33">
+        <f>E27+I27+M27+P27</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="14.25">
+      <c r="A28" s="33">
+        <v>26</v>
+      </c>
+      <c r="B28" s="33">
+        <v>15</v>
+      </c>
+      <c r="C28" s="33">
+        <v>25</v>
+      </c>
+      <c r="D28" s="33">
+        <v>70</v>
+      </c>
+      <c r="E28" s="34">
+        <v>110</v>
+      </c>
+      <c r="F28" s="33">
+        <v>15</v>
+      </c>
+      <c r="G28" s="33">
+        <v>95</v>
+      </c>
+      <c r="H28" s="33">
+        <v>100</v>
+      </c>
+      <c r="I28" s="34">
+        <v>210</v>
+      </c>
+      <c r="J28" s="33">
+        <v>50</v>
+      </c>
+      <c r="K28" s="33">
+        <v>100</v>
+      </c>
+      <c r="L28" s="33">
+        <v>80</v>
+      </c>
+      <c r="M28" s="34">
+        <f>J28+K28+L28</f>
+        <v>230</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28" s="34">
+        <f>N28+O28</f>
+        <v>200</v>
+      </c>
+      <c r="Q28" s="33">
+        <f>E28+I28+M28+P28</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="14.25">
+      <c r="A29" s="33">
+        <v>27</v>
+      </c>
+      <c r="B29" s="33">
+        <v>15</v>
+      </c>
+      <c r="C29" s="33">
+        <v>10</v>
+      </c>
+      <c r="D29" s="33">
+        <v>80</v>
+      </c>
+      <c r="E29" s="34">
+        <v>105</v>
+      </c>
+      <c r="F29" s="33">
+        <v>100</v>
+      </c>
+      <c r="G29" s="33">
+        <v>60</v>
+      </c>
+      <c r="H29" s="33">
+        <v>100</v>
+      </c>
+      <c r="I29" s="34">
+        <v>260</v>
+      </c>
+      <c r="J29" s="33">
+        <v>100</v>
+      </c>
+      <c r="K29" s="33">
+        <v>65</v>
+      </c>
+      <c r="L29" s="33">
+        <v>100</v>
+      </c>
+      <c r="M29" s="34">
+        <f>J29+K29+L29</f>
+        <v>265</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="P29" s="34">
+        <f>N29+O29</f>
+        <v>200</v>
+      </c>
+      <c r="Q29" s="33">
+        <f>E29+I29+M29+P29</f>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="14.25">
+      <c r="A30" s="33">
+        <v>28</v>
+      </c>
+      <c r="B30" s="33">
+        <v>15</v>
+      </c>
+      <c r="C30" s="33">
+        <v>10</v>
+      </c>
+      <c r="D30" s="33">
+        <v>40</v>
+      </c>
+      <c r="E30" s="34">
+        <v>65</v>
+      </c>
+      <c r="F30" s="33">
+        <v>40</v>
+      </c>
+      <c r="G30" s="33">
+        <v>100</v>
+      </c>
+      <c r="H30" s="33">
+        <v>50</v>
+      </c>
+      <c r="I30" s="34">
+        <v>190</v>
+      </c>
+      <c r="J30" s="33">
+        <v>100</v>
+      </c>
+      <c r="K30" s="33">
+        <v>100</v>
+      </c>
+      <c r="L30" s="33">
+        <v>75</v>
+      </c>
+      <c r="M30" s="34">
+        <f>J30+K30+L30</f>
+        <v>275</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30" s="34">
+        <f>N30+O30</f>
+        <v>200</v>
+      </c>
+      <c r="Q30" s="33">
+        <f>E30+I30+M30+P30</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="14.25">
+      <c r="A31" s="33">
+        <v>29</v>
+      </c>
+      <c r="B31" s="33">
+        <v>100</v>
+      </c>
+      <c r="C31" s="33">
+        <v>50</v>
+      </c>
+      <c r="D31" s="33">
+        <v>85</v>
+      </c>
+      <c r="E31" s="34">
+        <v>235</v>
+      </c>
+      <c r="F31" s="33">
+        <v>100</v>
+      </c>
+      <c r="G31" s="33">
+        <v>60</v>
+      </c>
+      <c r="H31" s="33">
+        <v>20</v>
+      </c>
+      <c r="I31" s="34">
+        <v>180</v>
+      </c>
+      <c r="J31" s="33">
+        <v>45</v>
+      </c>
+      <c r="K31" s="33">
+        <v>85</v>
+      </c>
+      <c r="L31" s="33">
+        <v>90</v>
+      </c>
+      <c r="M31" s="34">
+        <f>J31+K31+L31</f>
+        <v>220</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+      <c r="P31" s="34">
+        <f>N31+O31</f>
+        <v>200</v>
+      </c>
+      <c r="Q31" s="33">
+        <f>E31+I31+M31+P31</f>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="14.25">
+      <c r="A32" s="33">
+        <v>30</v>
+      </c>
+      <c r="B32" s="33">
+        <v>40</v>
+      </c>
+      <c r="C32" s="33">
+        <v>20</v>
+      </c>
+      <c r="D32" s="33">
+        <v>100</v>
+      </c>
+      <c r="E32" s="34">
+        <v>160</v>
+      </c>
+      <c r="F32" s="33">
+        <v>5</v>
+      </c>
+      <c r="G32" s="33">
+        <v>60</v>
+      </c>
+      <c r="H32" s="33">
+        <v>30</v>
+      </c>
+      <c r="I32" s="34">
+        <v>95</v>
+      </c>
+      <c r="J32" s="33">
+        <v>45</v>
+      </c>
+      <c r="K32" s="33">
+        <v>60</v>
+      </c>
+      <c r="L32" s="33">
+        <v>5</v>
+      </c>
+      <c r="M32" s="34">
+        <f>J32+K32+L32</f>
+        <v>110</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="O32">
+        <v>100</v>
+      </c>
+      <c r="P32" s="34">
+        <f>N32+O32</f>
+        <v>200</v>
+      </c>
+      <c r="Q32" s="33">
+        <f>E32+I32+M32+P32</f>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="14.25">
+      <c r="A33" s="33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="33">
+        <v>45</v>
+      </c>
+      <c r="C33" s="33">
+        <v>60</v>
+      </c>
+      <c r="D33" s="33">
+        <v>75</v>
+      </c>
+      <c r="E33" s="34">
+        <v>180</v>
+      </c>
+      <c r="F33" s="33">
+        <v>100</v>
+      </c>
+      <c r="G33" s="33">
+        <v>85</v>
+      </c>
+      <c r="H33" s="33">
+        <v>25</v>
+      </c>
+      <c r="I33" s="34">
+        <v>210</v>
+      </c>
+      <c r="J33" s="33">
+        <v>100</v>
+      </c>
+      <c r="K33" s="33">
+        <v>70</v>
+      </c>
+      <c r="L33" s="33">
+        <v>75</v>
+      </c>
+      <c r="M33" s="34">
+        <f>J33+K33+L33</f>
+        <v>245</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33">
+        <v>70</v>
+      </c>
+      <c r="P33" s="34">
+        <f>N33+O33</f>
+        <v>170</v>
+      </c>
+      <c r="Q33" s="33">
+        <f>E33+I33+M33+P33</f>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="14.25">
+      <c r="A34" s="33">
+        <v>32</v>
+      </c>
+      <c r="B34" s="33">
+        <v>60</v>
+      </c>
+      <c r="C34" s="33">
+        <v>100</v>
+      </c>
+      <c r="D34" s="33">
+        <v>100</v>
+      </c>
+      <c r="E34" s="34">
+        <v>260</v>
+      </c>
+      <c r="F34" s="33">
+        <v>100</v>
+      </c>
+      <c r="G34" s="33">
+        <v>100</v>
+      </c>
+      <c r="H34" s="33">
+        <v>85</v>
+      </c>
+      <c r="I34" s="34">
+        <v>285</v>
+      </c>
+      <c r="J34" s="33">
+        <v>100</v>
+      </c>
+      <c r="K34" s="33">
+        <v>65</v>
+      </c>
+      <c r="L34" s="33">
+        <v>100</v>
+      </c>
+      <c r="M34" s="34">
+        <f>J34+K34+L34</f>
+        <v>265</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+      <c r="O34">
+        <v>75</v>
+      </c>
+      <c r="P34" s="34">
+        <f>N34+O34</f>
+        <v>175</v>
+      </c>
+      <c r="Q34" s="33">
+        <f>E34+I34+M34+P34</f>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="14.25">
+      <c r="A35" s="33">
+        <v>33</v>
+      </c>
+      <c r="B35" s="33">
+        <v>100</v>
+      </c>
+      <c r="C35" s="33">
+        <v>100</v>
+      </c>
+      <c r="D35" s="33">
+        <v>85</v>
+      </c>
+      <c r="E35" s="34">
+        <v>285</v>
+      </c>
+      <c r="F35" s="33">
+        <v>100</v>
+      </c>
+      <c r="G35" s="33">
+        <v>100</v>
+      </c>
+      <c r="H35" s="33">
+        <v>100</v>
+      </c>
+      <c r="I35" s="34">
+        <v>300</v>
+      </c>
+      <c r="J35" s="33">
+        <v>35</v>
+      </c>
+      <c r="K35" s="33">
+        <v>100</v>
+      </c>
+      <c r="L35" s="33">
+        <v>30</v>
+      </c>
+      <c r="M35" s="34">
+        <f>J35+K35+L35</f>
+        <v>165</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="O35">
+        <v>100</v>
+      </c>
+      <c r="P35" s="34">
+        <f>N35+O35</f>
+        <v>200</v>
+      </c>
+      <c r="Q35" s="33">
+        <f>E35+I35+M35+P35</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="14.25">
+      <c r="A36" s="33">
+        <v>34</v>
+      </c>
+      <c r="B36" s="33">
+        <v>100</v>
+      </c>
+      <c r="C36" s="33">
+        <v>100</v>
+      </c>
+      <c r="D36" s="33">
+        <v>100</v>
+      </c>
+      <c r="E36" s="34">
+        <v>300</v>
+      </c>
+      <c r="F36" s="33">
+        <v>100</v>
+      </c>
+      <c r="G36" s="33">
+        <v>100</v>
+      </c>
+      <c r="H36" s="33">
+        <v>100</v>
+      </c>
+      <c r="I36" s="34">
+        <v>300</v>
+      </c>
+      <c r="J36" s="33">
+        <v>45</v>
+      </c>
+      <c r="K36" s="33">
+        <v>100</v>
+      </c>
+      <c r="L36" s="33">
+        <v>35</v>
+      </c>
+      <c r="M36" s="34">
+        <f>J36+K36+L36</f>
+        <v>180</v>
+      </c>
+      <c r="N36">
+        <v>60</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+      <c r="P36" s="34">
+        <f>N36+O36</f>
+        <v>160</v>
+      </c>
+      <c r="Q36" s="33">
+        <f>E36+I36+M36+P36</f>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="14.25">
+      <c r="A37" s="33">
+        <v>35</v>
+      </c>
+      <c r="B37" s="33">
+        <v>100</v>
+      </c>
+      <c r="C37" s="33">
+        <v>100</v>
+      </c>
+      <c r="D37" s="33">
+        <v>50</v>
+      </c>
+      <c r="E37" s="34">
+        <v>250</v>
+      </c>
+      <c r="F37" s="33">
+        <v>100</v>
+      </c>
+      <c r="G37" s="33">
+        <v>100</v>
+      </c>
+      <c r="H37" s="33">
+        <v>100</v>
+      </c>
+      <c r="I37" s="34">
+        <v>300</v>
+      </c>
+      <c r="J37" s="33">
+        <v>65</v>
+      </c>
+      <c r="K37" s="33">
+        <v>70</v>
+      </c>
+      <c r="L37" s="33">
+        <v>100</v>
+      </c>
+      <c r="M37" s="34">
+        <f>J37+K37+L37</f>
+        <v>235</v>
+      </c>
+      <c r="N37">
+        <v>75</v>
+      </c>
+      <c r="O37">
+        <v>100</v>
+      </c>
+      <c r="P37" s="34">
+        <f>N37+O37</f>
+        <v>175</v>
+      </c>
+      <c r="Q37" s="33">
+        <f>E37+I37+M37+P37</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="14.25">
+      <c r="A38" s="33">
+        <v>36</v>
+      </c>
+      <c r="B38" s="33">
+        <v>100</v>
+      </c>
+      <c r="C38" s="33">
+        <v>100</v>
+      </c>
+      <c r="D38" s="33">
+        <v>100</v>
+      </c>
+      <c r="E38" s="34">
+        <v>300</v>
+      </c>
+      <c r="F38" s="33">
+        <v>100</v>
+      </c>
+      <c r="G38" s="33">
+        <v>100</v>
+      </c>
+      <c r="H38" s="33">
+        <v>100</v>
+      </c>
+      <c r="I38" s="34">
+        <v>300</v>
+      </c>
+      <c r="J38" s="33">
+        <v>90</v>
+      </c>
+      <c r="K38" s="33">
+        <v>100</v>
+      </c>
+      <c r="L38" s="33">
+        <v>100</v>
+      </c>
+      <c r="M38" s="34">
+        <f>J38+K38+L38</f>
+        <v>290</v>
+      </c>
+      <c r="N38">
+        <v>100</v>
+      </c>
+      <c r="O38">
+        <v>100</v>
+      </c>
+      <c r="P38" s="34">
+        <f>N38+O38</f>
+        <v>200</v>
+      </c>
+      <c r="Q38" s="33">
+        <f>E38+I38+M38+P38</f>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="14.25">
+      <c r="A39" s="33">
+        <v>37</v>
+      </c>
+      <c r="B39" s="33">
+        <v>85</v>
+      </c>
+      <c r="C39" s="33">
+        <v>100</v>
+      </c>
+      <c r="D39" s="33">
+        <v>100</v>
+      </c>
+      <c r="E39" s="34">
+        <v>285</v>
+      </c>
+      <c r="F39" s="33">
+        <v>100</v>
+      </c>
+      <c r="G39" s="33">
+        <v>100</v>
+      </c>
+      <c r="H39" s="33">
+        <v>100</v>
+      </c>
+      <c r="I39" s="34">
+        <v>300</v>
+      </c>
+      <c r="J39" s="33">
+        <v>80</v>
+      </c>
+      <c r="K39" s="33">
+        <v>100</v>
+      </c>
+      <c r="L39" s="33">
+        <v>75</v>
+      </c>
+      <c r="M39" s="34">
+        <f>J39+K39+L39</f>
+        <v>255</v>
+      </c>
+      <c r="N39">
+        <v>85</v>
+      </c>
+      <c r="O39">
+        <v>100</v>
+      </c>
+      <c r="P39" s="34">
+        <f>N39+O39</f>
+        <v>185</v>
+      </c>
+      <c r="Q39" s="33">
+        <f>E39+I39+M39+P39</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="14.25">
+      <c r="A40" s="33">
+        <v>38</v>
+      </c>
+      <c r="B40" s="33">
+        <v>100</v>
+      </c>
+      <c r="C40" s="33">
+        <v>100</v>
+      </c>
+      <c r="D40" s="33">
+        <v>100</v>
+      </c>
+      <c r="E40" s="34">
+        <v>300</v>
+      </c>
+      <c r="F40" s="33">
+        <v>100</v>
+      </c>
+      <c r="G40" s="33">
+        <v>100</v>
+      </c>
+      <c r="H40" s="33">
+        <v>100</v>
+      </c>
+      <c r="I40" s="34">
+        <v>300</v>
+      </c>
+      <c r="J40" s="33">
+        <v>55</v>
+      </c>
+      <c r="K40" s="33">
+        <v>100</v>
+      </c>
+      <c r="L40" s="33">
+        <v>100</v>
+      </c>
+      <c r="M40" s="34">
+        <f>J40+K40+L40</f>
+        <v>255</v>
+      </c>
+      <c r="N40">
+        <v>85</v>
+      </c>
+      <c r="O40">
+        <v>100</v>
+      </c>
+      <c r="P40" s="34">
+        <f>N40+O40</f>
+        <v>185</v>
+      </c>
+      <c r="Q40" s="33">
+        <f>E40+I40+M40+P40</f>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="14.25">
+      <c r="A41" s="33">
+        <v>39</v>
+      </c>
+      <c r="B41" s="33">
+        <v>100</v>
+      </c>
+      <c r="C41" s="33">
+        <v>100</v>
+      </c>
+      <c r="D41" s="33">
+        <v>100</v>
+      </c>
+      <c r="E41" s="34">
+        <v>300</v>
+      </c>
+      <c r="F41" s="33">
+        <v>100</v>
+      </c>
+      <c r="G41" s="33">
+        <v>100</v>
+      </c>
+      <c r="H41" s="33">
+        <v>100</v>
+      </c>
+      <c r="I41" s="34">
+        <v>300</v>
+      </c>
+      <c r="J41" s="33">
+        <v>100</v>
+      </c>
+      <c r="K41" s="33">
+        <v>100</v>
+      </c>
+      <c r="L41" s="33">
+        <v>100</v>
+      </c>
+      <c r="M41" s="34">
+        <f>J41+K41+L41</f>
+        <v>300</v>
+      </c>
+      <c r="N41">
+        <v>100</v>
+      </c>
+      <c r="O41">
+        <v>100</v>
+      </c>
+      <c r="P41" s="34">
+        <f>N41+O41</f>
+        <v>200</v>
+      </c>
+      <c r="Q41" s="33">
+        <f>E41+I41+M41+P41</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="14.25">
+      <c r="A42" s="33">
+        <v>40</v>
+      </c>
+      <c r="B42" s="33">
+        <v>100</v>
+      </c>
+      <c r="C42" s="33">
+        <v>100</v>
+      </c>
+      <c r="D42" s="33">
+        <v>100</v>
+      </c>
+      <c r="E42" s="34">
+        <v>300</v>
+      </c>
+      <c r="F42" s="33">
+        <v>100</v>
+      </c>
+      <c r="G42" s="33">
+        <v>100</v>
+      </c>
+      <c r="H42" s="33">
+        <v>100</v>
+      </c>
+      <c r="I42" s="34">
+        <v>300</v>
+      </c>
+      <c r="J42" s="33">
+        <v>100</v>
+      </c>
+      <c r="K42" s="33">
+        <v>100</v>
+      </c>
+      <c r="L42" s="33">
+        <v>100</v>
+      </c>
+      <c r="M42" s="34">
+        <f>J42+K42+L42</f>
+        <v>300</v>
+      </c>
+      <c r="N42">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>65</v>
+      </c>
+      <c r="P42" s="34">
+        <f>N42+O42</f>
+        <v>105</v>
+      </c>
+      <c r="Q42" s="33">
+        <f>E42+I42+M42+P42</f>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="14.25">
+      <c r="A43" s="33">
+        <v>41</v>
+      </c>
+      <c r="B43" s="33">
+        <v>100</v>
+      </c>
+      <c r="C43" s="33">
+        <v>100</v>
+      </c>
+      <c r="D43" s="33">
+        <v>100</v>
+      </c>
+      <c r="E43" s="34">
+        <v>300</v>
+      </c>
+      <c r="F43" s="33">
+        <v>100</v>
+      </c>
+      <c r="G43" s="33">
+        <v>100</v>
+      </c>
+      <c r="H43" s="33">
+        <v>100</v>
+      </c>
+      <c r="I43" s="34">
+        <v>300</v>
+      </c>
+      <c r="J43" s="33">
+        <v>60</v>
+      </c>
+      <c r="K43" s="33">
+        <v>100</v>
+      </c>
+      <c r="L43" s="33">
+        <v>100</v>
+      </c>
+      <c r="M43" s="34">
+        <f>J43+K43+L43</f>
+        <v>260</v>
+      </c>
+      <c r="N43">
+        <v>40</v>
+      </c>
+      <c r="O43">
+        <v>55</v>
+      </c>
+      <c r="P43" s="34">
+        <f>N43+O43</f>
+        <v>95</v>
+      </c>
+      <c r="Q43" s="33">
+        <f>E43+I43+M43+P43</f>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="14.25">
+      <c r="A44" s="33">
+        <v>42</v>
+      </c>
+      <c r="B44" s="33">
+        <v>100</v>
+      </c>
+      <c r="C44" s="33">
+        <v>100</v>
+      </c>
+      <c r="D44" s="33">
+        <v>100</v>
+      </c>
+      <c r="E44" s="34">
+        <v>300</v>
+      </c>
+      <c r="F44" s="33">
+        <v>100</v>
+      </c>
+      <c r="G44" s="33">
+        <v>100</v>
+      </c>
+      <c r="H44" s="33">
+        <v>100</v>
+      </c>
+      <c r="I44" s="34">
+        <v>300</v>
+      </c>
+      <c r="J44" s="33">
+        <v>100</v>
+      </c>
+      <c r="K44" s="33">
+        <v>100</v>
+      </c>
+      <c r="L44" s="33">
+        <v>95</v>
+      </c>
+      <c r="M44" s="34">
+        <f>J44+K44+L44</f>
+        <v>295</v>
+      </c>
+      <c r="N44">
+        <v>15</v>
+      </c>
+      <c r="O44">
+        <v>10</v>
+      </c>
+      <c r="P44" s="34">
+        <f>N44+O44</f>
+        <v>25</v>
+      </c>
+      <c r="Q44" s="33">
+        <f>E44+I44+M44+P44</f>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="14.25">
+      <c r="A45" s="33">
+        <v>43</v>
+      </c>
+      <c r="B45" s="33">
+        <v>30</v>
+      </c>
+      <c r="C45" s="33">
+        <v>100</v>
+      </c>
+      <c r="D45" s="33">
+        <v>100</v>
+      </c>
+      <c r="E45" s="34">
+        <v>230</v>
+      </c>
+      <c r="F45" s="33">
+        <v>100</v>
+      </c>
+      <c r="G45" s="33">
+        <v>100</v>
+      </c>
+      <c r="H45" s="33">
+        <v>100</v>
+      </c>
+      <c r="I45" s="34">
+        <v>300</v>
+      </c>
+      <c r="J45" s="33">
+        <v>100</v>
+      </c>
+      <c r="K45" s="33">
+        <v>100</v>
+      </c>
+      <c r="L45" s="33">
+        <v>100</v>
+      </c>
+      <c r="M45" s="34">
+        <f>J45+K45+L45</f>
+        <v>300</v>
+      </c>
+      <c r="N45">
+        <v>15</v>
+      </c>
+      <c r="O45">
+        <v>20</v>
+      </c>
+      <c r="P45" s="34">
+        <f>N45+O45</f>
+        <v>35</v>
+      </c>
+      <c r="Q45" s="33">
+        <f>E45+I45+M45+P45</f>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="14.25">
+      <c r="A46" s="33">
+        <v>44</v>
+      </c>
+      <c r="B46" s="33">
+        <v>20</v>
+      </c>
+      <c r="C46" s="33">
+        <v>100</v>
+      </c>
+      <c r="D46" s="33">
+        <v>100</v>
+      </c>
+      <c r="E46" s="34">
+        <v>220</v>
+      </c>
+      <c r="F46" s="33">
+        <v>100</v>
+      </c>
+      <c r="G46" s="33">
+        <v>100</v>
+      </c>
+      <c r="H46" s="33">
+        <v>100</v>
+      </c>
+      <c r="I46" s="34">
+        <v>300</v>
+      </c>
+      <c r="J46" s="33">
+        <v>100</v>
+      </c>
+      <c r="K46" s="33">
+        <v>100</v>
+      </c>
+      <c r="L46" s="33">
+        <v>100</v>
+      </c>
+      <c r="M46" s="34">
+        <f>J46+K46+L46</f>
+        <v>300</v>
+      </c>
+      <c r="N46">
+        <v>55</v>
+      </c>
+      <c r="O46">
+        <v>15</v>
+      </c>
+      <c r="P46" s="34">
+        <f>N46+O46</f>
+        <v>70</v>
+      </c>
+      <c r="Q46" s="33">
+        <f>E46+I46+M46+P46</f>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="14.25">
+      <c r="A47" s="33">
+        <v>45</v>
+      </c>
+      <c r="B47" s="33">
+        <v>5</v>
+      </c>
+      <c r="C47" s="33">
+        <v>100</v>
+      </c>
+      <c r="D47" s="33">
+        <v>100</v>
+      </c>
+      <c r="E47" s="34">
+        <v>205</v>
+      </c>
+      <c r="F47" s="33">
+        <v>95</v>
+      </c>
+      <c r="G47" s="33">
+        <v>100</v>
+      </c>
+      <c r="H47" s="33">
+        <v>100</v>
+      </c>
+      <c r="I47" s="34">
+        <v>295</v>
+      </c>
+      <c r="J47" s="33">
+        <v>100</v>
+      </c>
+      <c r="K47" s="33">
+        <v>100</v>
+      </c>
+      <c r="L47" s="33">
+        <v>100</v>
+      </c>
+      <c r="M47" s="34">
+        <f>J47+K47+L47</f>
+        <v>300</v>
+      </c>
+      <c r="N47">
+        <v>100</v>
+      </c>
+      <c r="O47">
+        <v>15</v>
+      </c>
+      <c r="P47" s="34">
+        <f>N47+O47</f>
+        <v>115</v>
+      </c>
+      <c r="Q47" s="33">
+        <f>E47+I47+M47+P47</f>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="14.25">
+      <c r="A48" s="33">
+        <v>46</v>
+      </c>
+      <c r="B48" s="33">
+        <v>30</v>
+      </c>
+      <c r="C48" s="33">
+        <v>95</v>
+      </c>
+      <c r="D48" s="33">
+        <v>100</v>
+      </c>
+      <c r="E48" s="34">
+        <v>225</v>
+      </c>
+      <c r="F48" s="33">
+        <v>55</v>
+      </c>
+      <c r="G48" s="33">
+        <v>100</v>
+      </c>
+      <c r="H48" s="33">
+        <v>100</v>
+      </c>
+      <c r="I48" s="34">
+        <v>255</v>
+      </c>
+      <c r="J48" s="33">
+        <v>100</v>
+      </c>
+      <c r="K48" s="33">
+        <v>100</v>
+      </c>
+      <c r="L48" s="33">
+        <v>100</v>
+      </c>
+      <c r="M48" s="34">
+        <f>J48+K48+L48</f>
+        <v>300</v>
+      </c>
+      <c r="N48">
+        <v>80</v>
+      </c>
+      <c r="O48">
+        <v>20</v>
+      </c>
+      <c r="P48" s="34">
+        <f>N48+O48</f>
+        <v>100</v>
+      </c>
+      <c r="Q48" s="33">
+        <f>E48+I48+M48+P48</f>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="14.25">
+      <c r="A49" s="33">
+        <v>47</v>
+      </c>
+      <c r="B49" s="33">
+        <v>20</v>
+      </c>
+      <c r="C49" s="33">
+        <v>100</v>
+      </c>
+      <c r="D49" s="33">
+        <v>100</v>
+      </c>
+      <c r="E49" s="34">
+        <v>220</v>
+      </c>
+      <c r="F49" s="33">
+        <v>35</v>
+      </c>
+      <c r="G49" s="33">
+        <v>100</v>
+      </c>
+      <c r="H49" s="33">
+        <v>100</v>
+      </c>
+      <c r="I49" s="34">
+        <v>235</v>
+      </c>
+      <c r="J49" s="33">
+        <v>100</v>
+      </c>
+      <c r="K49" s="33">
+        <v>100</v>
+      </c>
+      <c r="L49" s="33">
+        <v>100</v>
+      </c>
+      <c r="M49" s="34">
+        <f>J49+K49+L49</f>
+        <v>300</v>
+      </c>
+      <c r="N49">
+        <v>15</v>
+      </c>
+      <c r="O49">
+        <v>25</v>
+      </c>
+      <c r="P49" s="34">
+        <f>N49+O49</f>
+        <v>40</v>
+      </c>
+      <c r="Q49" s="33">
+        <f>E49+I49+M49+P49</f>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="14.25">
+      <c r="A50" s="33">
+        <v>48</v>
+      </c>
+      <c r="B50" s="33">
+        <v>10</v>
+      </c>
+      <c r="C50" s="33">
+        <v>100</v>
+      </c>
+      <c r="D50" s="33">
+        <v>100</v>
+      </c>
+      <c r="E50" s="34">
+        <v>210</v>
+      </c>
+      <c r="F50" s="33">
+        <v>100</v>
+      </c>
+      <c r="G50" s="33">
+        <v>100</v>
+      </c>
+      <c r="H50" s="33">
+        <v>100</v>
+      </c>
+      <c r="I50" s="34">
+        <v>300</v>
+      </c>
+      <c r="J50" s="33">
+        <v>100</v>
+      </c>
+      <c r="K50" s="33">
+        <v>100</v>
+      </c>
+      <c r="L50" s="33">
+        <v>85</v>
+      </c>
+      <c r="M50" s="34">
+        <f>J50+K50+L50</f>
+        <v>285</v>
+      </c>
+      <c r="N50">
+        <v>15</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50" s="34">
+        <f>N50+O50</f>
+        <v>25</v>
+      </c>
+      <c r="Q50" s="33">
+        <f>E50+I50+M50+P50</f>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="14.25">
+      <c r="A51" s="33">
+        <v>49</v>
+      </c>
+      <c r="B51" s="33">
+        <v>100</v>
+      </c>
+      <c r="C51" s="33">
+        <v>100</v>
+      </c>
+      <c r="D51" s="33">
+        <v>100</v>
+      </c>
+      <c r="E51" s="34">
+        <v>300</v>
+      </c>
+      <c r="F51" s="33">
+        <v>100</v>
+      </c>
+      <c r="G51" s="33">
+        <v>100</v>
+      </c>
+      <c r="H51" s="33">
+        <v>100</v>
+      </c>
+      <c r="I51" s="34">
+        <v>300</v>
+      </c>
+      <c r="J51" s="33">
+        <v>100</v>
+      </c>
+      <c r="K51" s="33">
+        <v>100</v>
+      </c>
+      <c r="L51" s="33">
+        <v>100</v>
+      </c>
+      <c r="M51" s="34">
+        <f>J51+K51+L51</f>
+        <v>300</v>
+      </c>
+      <c r="N51">
+        <v>15</v>
+      </c>
+      <c r="O51">
+        <v>100</v>
+      </c>
+      <c r="P51" s="34">
+        <f>N51+O51</f>
+        <v>115</v>
+      </c>
+      <c r="Q51" s="33">
+        <f>E51+I51+M51+P51</f>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="14.25">
+      <c r="A52" s="33">
+        <v>50</v>
+      </c>
+      <c r="B52" s="33">
+        <v>45</v>
+      </c>
+      <c r="C52" s="33">
+        <v>100</v>
+      </c>
+      <c r="D52" s="33">
+        <v>100</v>
+      </c>
+      <c r="E52" s="34">
+        <v>245</v>
+      </c>
+      <c r="F52" s="33">
+        <v>100</v>
+      </c>
+      <c r="G52" s="33">
+        <v>100</v>
+      </c>
+      <c r="H52" s="33">
+        <v>100</v>
+      </c>
+      <c r="I52" s="34">
+        <v>300</v>
+      </c>
+      <c r="J52" s="33">
+        <v>100</v>
+      </c>
+      <c r="K52" s="33">
+        <v>100</v>
+      </c>
+      <c r="L52" s="33">
+        <v>100</v>
+      </c>
+      <c r="M52" s="34">
+        <f>J52+K52+L52</f>
+        <v>300</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>100</v>
+      </c>
+      <c r="P52" s="34">
+        <f>N52+O52</f>
+        <v>105</v>
+      </c>
+      <c r="Q52" s="33">
+        <f>E52+I52+M52+P52</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="14.25">
+      <c r="A53" s="33">
+        <v>51</v>
+      </c>
+      <c r="B53" s="33">
+        <v>30</v>
+      </c>
+      <c r="C53" s="33">
+        <v>100</v>
+      </c>
+      <c r="D53" s="33">
+        <v>100</v>
+      </c>
+      <c r="E53" s="34">
+        <v>230</v>
+      </c>
+      <c r="F53" s="33">
+        <v>100</v>
+      </c>
+      <c r="G53" s="33">
+        <v>100</v>
+      </c>
+      <c r="H53" s="33">
+        <v>100</v>
+      </c>
+      <c r="I53" s="34">
+        <v>300</v>
+      </c>
+      <c r="J53" s="33">
+        <v>100</v>
+      </c>
+      <c r="K53" s="33">
+        <v>100</v>
+      </c>
+      <c r="L53" s="33">
+        <v>100</v>
+      </c>
+      <c r="M53" s="34">
+        <f>J53+K53+L53</f>
+        <v>300</v>
+      </c>
+      <c r="N53">
+        <v>15</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53" s="34">
+        <f>N53+O53</f>
+        <v>25</v>
+      </c>
+      <c r="Q53" s="33">
+        <f>E53+I53+M53+P53</f>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="14.25">
+      <c r="A54" s="33">
+        <v>52</v>
+      </c>
+      <c r="B54" s="33">
+        <v>50</v>
+      </c>
+      <c r="C54" s="33">
+        <v>100</v>
+      </c>
+      <c r="D54" s="33">
+        <v>100</v>
+      </c>
+      <c r="E54" s="34">
+        <v>250</v>
+      </c>
+      <c r="F54" s="33">
+        <v>100</v>
+      </c>
+      <c r="G54" s="33">
+        <v>100</v>
+      </c>
+      <c r="H54" s="33">
+        <v>100</v>
+      </c>
+      <c r="I54" s="34">
+        <v>300</v>
+      </c>
+      <c r="J54" s="33">
+        <v>100</v>
+      </c>
+      <c r="K54" s="33">
+        <v>100</v>
+      </c>
+      <c r="L54" s="33">
+        <v>100</v>
+      </c>
+      <c r="M54" s="34">
+        <f>J54+K54+L54</f>
+        <v>300</v>
+      </c>
+      <c r="N54">
+        <v>10</v>
+      </c>
+      <c r="O54">
+        <v>25</v>
+      </c>
+      <c r="P54" s="34">
+        <f>N54+O54</f>
+        <v>35</v>
+      </c>
+      <c r="Q54" s="33">
+        <f>E54+I54+M54+P54</f>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="14.25">
+      <c r="A55" s="33">
+        <v>53</v>
+      </c>
+      <c r="B55" s="33">
+        <v>100</v>
+      </c>
+      <c r="C55" s="33">
+        <v>100</v>
+      </c>
+      <c r="D55" s="33">
+        <v>100</v>
+      </c>
+      <c r="E55" s="34">
+        <v>300</v>
+      </c>
+      <c r="F55" s="33">
+        <v>100</v>
+      </c>
+      <c r="G55" s="33">
+        <v>100</v>
+      </c>
+      <c r="H55" s="33">
+        <v>100</v>
+      </c>
+      <c r="I55" s="34">
+        <v>300</v>
+      </c>
+      <c r="J55" s="33">
+        <v>100</v>
+      </c>
+      <c r="K55" s="33">
+        <v>100</v>
+      </c>
+      <c r="L55" s="33">
+        <v>100</v>
+      </c>
+      <c r="M55" s="34">
+        <f>J55+K55+L55</f>
+        <v>300</v>
+      </c>
+      <c r="N55">
+        <v>60</v>
+      </c>
+      <c r="O55">
+        <v>20</v>
+      </c>
+      <c r="P55" s="34">
+        <f>N55+O55</f>
+        <v>80</v>
+      </c>
+      <c r="Q55" s="33">
+        <f>E55+I55+M55+P55</f>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="14.25">
+      <c r="A56" s="33">
+        <v>54</v>
+      </c>
+      <c r="B56" s="33">
+        <v>100</v>
+      </c>
+      <c r="C56" s="33">
+        <v>100</v>
+      </c>
+      <c r="D56" s="33">
+        <v>100</v>
+      </c>
+      <c r="E56" s="34">
+        <v>300</v>
+      </c>
+      <c r="F56" s="33">
+        <v>100</v>
+      </c>
+      <c r="G56" s="33">
+        <v>100</v>
+      </c>
+      <c r="H56" s="33">
+        <v>100</v>
+      </c>
+      <c r="I56" s="34">
+        <v>300</v>
+      </c>
+      <c r="J56" s="33">
+        <v>100</v>
+      </c>
+      <c r="K56" s="33">
+        <v>100</v>
+      </c>
+      <c r="L56" s="33">
+        <v>100</v>
+      </c>
+      <c r="M56" s="34">
+        <f>J56+K56+L56</f>
+        <v>300</v>
+      </c>
+      <c r="N56">
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <v>65</v>
+      </c>
+      <c r="P56" s="34">
+        <f>N56+O56</f>
+        <v>165</v>
+      </c>
+      <c r="Q56" s="33">
+        <f>E56+I56+M56+P56</f>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="14.25">
+      <c r="A57" s="33">
+        <v>55</v>
+      </c>
+      <c r="B57" s="33">
+        <v>100</v>
+      </c>
+      <c r="C57" s="33">
+        <v>100</v>
+      </c>
+      <c r="D57" s="33">
+        <v>100</v>
+      </c>
+      <c r="E57" s="34">
+        <v>300</v>
+      </c>
+      <c r="F57" s="33">
+        <v>100</v>
+      </c>
+      <c r="G57" s="33">
+        <v>100</v>
+      </c>
+      <c r="H57" s="33">
+        <v>100</v>
+      </c>
+      <c r="I57" s="34">
+        <v>300</v>
+      </c>
+      <c r="J57" s="33">
+        <v>100</v>
+      </c>
+      <c r="K57" s="33">
+        <v>100</v>
+      </c>
+      <c r="L57" s="33">
+        <v>100</v>
+      </c>
+      <c r="M57" s="34">
+        <f>J57+K57+L57</f>
+        <v>300</v>
+      </c>
+      <c r="N57">
+        <v>100</v>
+      </c>
+      <c r="O57">
+        <v>40</v>
+      </c>
+      <c r="P57" s="34">
+        <f>N57+O57</f>
+        <v>140</v>
+      </c>
+      <c r="Q57" s="33">
+        <f>E57+I57+M57+P57</f>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="14.25">
+      <c r="A58" s="33">
+        <v>56</v>
+      </c>
+      <c r="B58" s="33">
+        <v>100</v>
+      </c>
+      <c r="C58" s="33">
+        <v>100</v>
+      </c>
+      <c r="D58" s="33">
+        <v>100</v>
+      </c>
+      <c r="E58" s="34">
+        <v>300</v>
+      </c>
+      <c r="F58" s="33">
+        <v>100</v>
+      </c>
+      <c r="G58" s="33">
+        <v>100</v>
+      </c>
+      <c r="H58" s="33">
+        <v>100</v>
+      </c>
+      <c r="I58" s="34">
+        <v>300</v>
+      </c>
+      <c r="J58" s="33">
+        <v>100</v>
+      </c>
+      <c r="K58" s="33">
+        <v>100</v>
+      </c>
+      <c r="L58" s="33">
+        <v>100</v>
+      </c>
+      <c r="M58" s="34">
+        <f>J58+K58+L58</f>
+        <v>300</v>
+      </c>
+      <c r="N58">
+        <v>100</v>
+      </c>
+      <c r="O58">
+        <v>20</v>
+      </c>
+      <c r="P58" s="34">
+        <f>N58+O58</f>
+        <v>120</v>
+      </c>
+      <c r="Q58" s="33">
+        <f>E58+I58+M58+P58</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="14.25">
+      <c r="A59" s="33">
+        <v>57</v>
+      </c>
+      <c r="B59" s="33">
+        <v>100</v>
+      </c>
+      <c r="C59" s="33">
+        <v>100</v>
+      </c>
+      <c r="D59" s="33">
+        <v>100</v>
+      </c>
+      <c r="E59" s="34">
+        <v>300</v>
+      </c>
+      <c r="F59" s="33">
+        <v>100</v>
+      </c>
+      <c r="G59" s="33">
+        <v>100</v>
+      </c>
+      <c r="H59" s="33">
+        <v>100</v>
+      </c>
+      <c r="I59" s="34">
+        <v>300</v>
+      </c>
+      <c r="J59" s="33">
+        <v>100</v>
+      </c>
+      <c r="K59" s="33">
+        <v>100</v>
+      </c>
+      <c r="L59" s="33">
+        <v>100</v>
+      </c>
+      <c r="M59" s="34">
+        <f>J59+K59+L59</f>
+        <v>300</v>
+      </c>
+      <c r="N59">
+        <v>100</v>
+      </c>
+      <c r="O59">
+        <v>25</v>
+      </c>
+      <c r="P59" s="34">
+        <f>N59+O59</f>
+        <v>125</v>
+      </c>
+      <c r="Q59" s="33">
+        <f>E59+I59+M59+P59</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="14.25">
+      <c r="A60" s="33">
+        <v>58</v>
+      </c>
+      <c r="B60" s="33">
+        <v>100</v>
+      </c>
+      <c r="C60" s="33">
+        <v>100</v>
+      </c>
+      <c r="D60" s="33">
+        <v>100</v>
+      </c>
+      <c r="E60" s="34">
+        <v>300</v>
+      </c>
+      <c r="F60" s="33">
+        <v>100</v>
+      </c>
+      <c r="G60" s="33">
+        <v>100</v>
+      </c>
+      <c r="H60" s="33">
+        <v>100</v>
+      </c>
+      <c r="I60" s="34">
+        <v>300</v>
+      </c>
+      <c r="J60" s="33">
+        <v>100</v>
+      </c>
+      <c r="K60" s="33">
+        <v>100</v>
+      </c>
+      <c r="L60" s="33">
+        <v>100</v>
+      </c>
+      <c r="M60" s="34">
+        <f>J60+K60+L60</f>
+        <v>300</v>
+      </c>
+      <c r="N60">
+        <v>100</v>
+      </c>
+      <c r="O60">
+        <v>45</v>
+      </c>
+      <c r="P60" s="34">
+        <f>N60+O60</f>
+        <v>145</v>
+      </c>
+      <c r="Q60" s="33">
+        <f>E60+I60+M60+P60</f>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="14.25">
+      <c r="A61" s="33">
+        <v>59</v>
+      </c>
+      <c r="B61" s="33">
+        <v>100</v>
+      </c>
+      <c r="C61" s="33">
+        <v>100</v>
+      </c>
+      <c r="D61" s="33">
+        <v>100</v>
+      </c>
+      <c r="E61" s="34">
+        <v>300</v>
+      </c>
+      <c r="F61" s="33">
+        <v>100</v>
+      </c>
+      <c r="G61" s="33">
+        <v>100</v>
+      </c>
+      <c r="H61" s="33">
+        <v>100</v>
+      </c>
+      <c r="I61" s="34">
+        <v>300</v>
+      </c>
+      <c r="J61" s="33">
+        <v>100</v>
+      </c>
+      <c r="K61" s="33">
+        <v>100</v>
+      </c>
+      <c r="L61" s="33">
+        <v>100</v>
+      </c>
+      <c r="M61" s="34">
+        <f>J61+K61+L61</f>
+        <v>300</v>
+      </c>
+      <c r="N61">
+        <v>70</v>
+      </c>
+      <c r="O61">
+        <v>30</v>
+      </c>
+      <c r="P61" s="34">
+        <f>N61+O61</f>
+        <v>100</v>
+      </c>
+      <c r="Q61" s="33">
+        <f>E61+I61+M61+P61</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="14.25">
+      <c r="A62" s="33">
+        <v>60</v>
+      </c>
+      <c r="B62" s="33">
+        <v>100</v>
+      </c>
+      <c r="C62" s="33">
+        <v>100</v>
+      </c>
+      <c r="D62" s="33">
+        <v>100</v>
+      </c>
+      <c r="E62" s="34">
+        <v>300</v>
+      </c>
+      <c r="F62" s="33">
+        <v>100</v>
+      </c>
+      <c r="G62" s="33">
+        <v>100</v>
+      </c>
+      <c r="H62" s="33">
+        <v>100</v>
+      </c>
+      <c r="I62" s="34">
+        <v>300</v>
+      </c>
+      <c r="J62" s="33">
+        <v>100</v>
+      </c>
+      <c r="K62" s="33">
+        <v>100</v>
+      </c>
+      <c r="L62" s="33">
+        <v>100</v>
+      </c>
+      <c r="M62" s="34">
+        <f>J62+K62+L62</f>
+        <v>300</v>
+      </c>
+      <c r="N62">
+        <v>100</v>
+      </c>
+      <c r="O62">
+        <v>100</v>
+      </c>
+      <c r="P62" s="34">
+        <f>N62+O62</f>
+        <v>200</v>
+      </c>
+      <c r="Q62" s="33">
+        <f>E62+I62+M62+P62</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="14.25">
+      <c r="A63" s="33">
+        <v>61</v>
+      </c>
+      <c r="B63" s="33">
+        <v>100</v>
+      </c>
+      <c r="C63" s="33">
+        <v>100</v>
+      </c>
+      <c r="D63" s="33">
+        <v>100</v>
+      </c>
+      <c r="E63" s="34">
+        <v>300</v>
+      </c>
+      <c r="F63" s="33">
+        <v>100</v>
+      </c>
+      <c r="G63" s="33">
+        <v>100</v>
+      </c>
+      <c r="H63" s="33">
+        <v>100</v>
+      </c>
+      <c r="I63" s="34">
+        <v>300</v>
+      </c>
+      <c r="J63" s="33">
+        <v>100</v>
+      </c>
+      <c r="K63" s="33">
+        <v>100</v>
+      </c>
+      <c r="L63" s="33">
+        <v>100</v>
+      </c>
+      <c r="M63" s="34">
+        <f>J63+K63+L63</f>
+        <v>300</v>
+      </c>
+      <c r="N63">
+        <v>100</v>
+      </c>
+      <c r="O63">
+        <v>100</v>
+      </c>
+      <c r="P63" s="34">
+        <f>N63+O63</f>
+        <v>200</v>
+      </c>
+      <c r="Q63" s="33">
+        <f>E63+I63+M63+P63</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="14.25">
+      <c r="A64" s="33">
+        <v>62</v>
+      </c>
+      <c r="B64" s="33">
+        <v>100</v>
+      </c>
+      <c r="C64" s="33">
+        <v>100</v>
+      </c>
+      <c r="D64" s="33">
+        <v>100</v>
+      </c>
+      <c r="E64" s="34">
+        <v>300</v>
+      </c>
+      <c r="F64" s="33">
+        <v>100</v>
+      </c>
+      <c r="G64" s="33">
+        <v>100</v>
+      </c>
+      <c r="H64" s="33">
+        <v>100</v>
+      </c>
+      <c r="I64" s="34">
+        <v>300</v>
+      </c>
+      <c r="J64" s="33">
+        <v>100</v>
+      </c>
+      <c r="K64" s="33">
+        <v>100</v>
+      </c>
+      <c r="L64" s="33">
+        <v>100</v>
+      </c>
+      <c r="M64" s="34">
+        <f>J64+K64+L64</f>
+        <v>300</v>
+      </c>
+      <c r="N64">
+        <v>100</v>
+      </c>
+      <c r="O64">
+        <v>100</v>
+      </c>
+      <c r="P64" s="34">
+        <f>N64+O64</f>
+        <v>200</v>
+      </c>
+      <c r="Q64" s="33">
+        <f>E64+I64+M64+P64</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="14.25">
+      <c r="A65" s="33">
+        <v>63</v>
+      </c>
+      <c r="B65" s="33">
+        <v>100</v>
+      </c>
+      <c r="C65" s="33">
+        <v>100</v>
+      </c>
+      <c r="D65" s="33">
+        <v>100</v>
+      </c>
+      <c r="E65" s="34">
+        <v>300</v>
+      </c>
+      <c r="F65" s="33">
+        <v>100</v>
+      </c>
+      <c r="G65" s="33">
+        <v>100</v>
+      </c>
+      <c r="H65" s="33">
+        <v>100</v>
+      </c>
+      <c r="I65" s="34">
+        <v>300</v>
+      </c>
+      <c r="J65" s="33">
+        <v>100</v>
+      </c>
+      <c r="K65" s="33">
+        <v>100</v>
+      </c>
+      <c r="L65" s="33">
+        <v>100</v>
+      </c>
+      <c r="M65" s="34">
+        <f>J65+K65+L65</f>
+        <v>300</v>
+      </c>
+      <c r="N65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>100</v>
+      </c>
+      <c r="P65" s="34">
+        <f>N65+O65</f>
+        <v>200</v>
+      </c>
+      <c r="Q65" s="33">
+        <f>E65+I65+M65+P65</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="14.25">
+      <c r="A66" s="33">
+        <v>64</v>
+      </c>
+      <c r="B66" s="33">
+        <v>100</v>
+      </c>
+      <c r="C66" s="33">
+        <v>100</v>
+      </c>
+      <c r="D66" s="33">
+        <v>100</v>
+      </c>
+      <c r="E66" s="34">
+        <v>300</v>
+      </c>
+      <c r="F66" s="33">
+        <v>100</v>
+      </c>
+      <c r="G66" s="33">
+        <v>100</v>
+      </c>
+      <c r="H66" s="33">
+        <v>100</v>
+      </c>
+      <c r="I66" s="34">
+        <v>300</v>
+      </c>
+      <c r="J66" s="33">
+        <v>100</v>
+      </c>
+      <c r="K66" s="33">
+        <v>100</v>
+      </c>
+      <c r="L66" s="33">
+        <v>100</v>
+      </c>
+      <c r="M66" s="34">
+        <f>J66+K66+L66</f>
+        <v>300</v>
+      </c>
+      <c r="N66">
+        <v>100</v>
+      </c>
+      <c r="O66">
+        <v>100</v>
+      </c>
+      <c r="P66" s="34">
+        <f>N66+O66</f>
+        <v>200</v>
+      </c>
+      <c r="Q66" s="33">
+        <f>E66+I66+M66+P66</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="14.25">
+      <c r="A67" s="33">
+        <v>65</v>
+      </c>
+      <c r="B67" s="33">
+        <v>100</v>
+      </c>
+      <c r="C67" s="33">
+        <v>100</v>
+      </c>
+      <c r="D67" s="33">
+        <v>100</v>
+      </c>
+      <c r="E67" s="34">
+        <v>300</v>
+      </c>
+      <c r="F67" s="33">
+        <v>100</v>
+      </c>
+      <c r="G67" s="33">
+        <v>70</v>
+      </c>
+      <c r="H67" s="33">
+        <v>100</v>
+      </c>
+      <c r="I67" s="34">
+        <v>270</v>
+      </c>
+      <c r="J67" s="33">
+        <v>100</v>
+      </c>
+      <c r="K67" s="33">
+        <v>100</v>
+      </c>
+      <c r="L67" s="33">
+        <v>100</v>
+      </c>
+      <c r="M67" s="34">
+        <f>J67+K67+L67</f>
+        <v>300</v>
+      </c>
+      <c r="N67">
+        <v>70</v>
+      </c>
+      <c r="O67">
+        <v>100</v>
+      </c>
+      <c r="P67" s="34">
+        <f>N67+O67</f>
+        <v>170</v>
+      </c>
+      <c r="Q67" s="33">
+        <f>E67+I67+M67+P67</f>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="14.25">
+      <c r="A68" s="33">
+        <v>66</v>
+      </c>
+      <c r="B68" s="33">
+        <v>85</v>
+      </c>
+      <c r="C68" s="33">
+        <v>100</v>
+      </c>
+      <c r="D68" s="33">
+        <v>100</v>
+      </c>
+      <c r="E68" s="34">
+        <v>285</v>
+      </c>
+      <c r="F68" s="33">
+        <v>45</v>
+      </c>
+      <c r="G68" s="33">
+        <v>30</v>
+      </c>
+      <c r="H68" s="33">
+        <v>50</v>
+      </c>
+      <c r="I68" s="34">
+        <v>125</v>
+      </c>
+      <c r="J68" s="33">
+        <v>100</v>
+      </c>
+      <c r="K68" s="33">
+        <v>100</v>
+      </c>
+      <c r="L68" s="33">
+        <v>100</v>
+      </c>
+      <c r="M68" s="34">
+        <f>J68+K68+L68</f>
+        <v>300</v>
+      </c>
+      <c r="N68">
+        <v>100</v>
+      </c>
+      <c r="O68">
+        <v>15</v>
+      </c>
+      <c r="P68" s="34">
+        <f>N68+O68</f>
+        <v>115</v>
+      </c>
+      <c r="Q68" s="33">
+        <f>E68+I68+M68+P68</f>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="14.25">
+      <c r="A69" s="33">
+        <v>67</v>
+      </c>
+      <c r="B69" s="33">
+        <v>20</v>
+      </c>
+      <c r="C69" s="33">
+        <v>30</v>
+      </c>
+      <c r="D69" s="33">
+        <v>40</v>
+      </c>
+      <c r="E69" s="34">
+        <v>90</v>
+      </c>
+      <c r="F69" s="33">
+        <v>15</v>
+      </c>
+      <c r="G69" s="33">
+        <v>30</v>
+      </c>
+      <c r="H69" s="33">
+        <v>20</v>
+      </c>
+      <c r="I69" s="34">
+        <v>65</v>
+      </c>
+      <c r="J69" s="33">
+        <v>100</v>
+      </c>
+      <c r="K69" s="33">
+        <v>100</v>
+      </c>
+      <c r="L69" s="33">
+        <v>100</v>
+      </c>
+      <c r="M69" s="34">
+        <f>J69+K69+L69</f>
+        <v>300</v>
+      </c>
+      <c r="N69">
+        <v>45</v>
+      </c>
+      <c r="O69">
+        <v>40</v>
+      </c>
+      <c r="P69" s="34">
+        <f>N69+O69</f>
+        <v>85</v>
+      </c>
+      <c r="Q69" s="33">
+        <f>E69+I69+M69+P69</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="14.25">
+      <c r="A70" s="33">
+        <v>68</v>
+      </c>
+      <c r="B70" s="33">
+        <v>10</v>
+      </c>
+      <c r="C70" s="33">
+        <v>25</v>
+      </c>
+      <c r="D70" s="33">
+        <v>15</v>
+      </c>
+      <c r="E70" s="34">
+        <v>50</v>
+      </c>
+      <c r="F70" s="33">
+        <v>20</v>
+      </c>
+      <c r="G70" s="33">
+        <v>70</v>
+      </c>
+      <c r="H70" s="33">
+        <v>25</v>
+      </c>
+      <c r="I70" s="34">
+        <v>115</v>
+      </c>
+      <c r="J70" s="33">
+        <v>100</v>
+      </c>
+      <c r="K70" s="33">
+        <v>100</v>
+      </c>
+      <c r="L70" s="33">
+        <v>100</v>
+      </c>
+      <c r="M70" s="34">
+        <f>J70+K70+L70</f>
+        <v>300</v>
+      </c>
+      <c r="N70">
+        <v>10</v>
+      </c>
+      <c r="O70">
+        <v>100</v>
+      </c>
+      <c r="P70" s="34">
+        <f>N70+O70</f>
+        <v>110</v>
+      </c>
+      <c r="Q70" s="33">
+        <f>E70+I70+M70+P70</f>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="14.25">
+      <c r="A71" s="33">
+        <v>69</v>
+      </c>
+      <c r="B71" s="33">
+        <v>10</v>
+      </c>
+      <c r="C71" s="33">
+        <v>10</v>
+      </c>
+      <c r="D71" s="33">
+        <v>20</v>
+      </c>
+      <c r="E71" s="34">
+        <v>40</v>
+      </c>
+      <c r="F71" s="33">
+        <v>25</v>
+      </c>
+      <c r="G71" s="33">
+        <v>40</v>
+      </c>
+      <c r="H71" s="33">
+        <v>30</v>
+      </c>
+      <c r="I71" s="34">
+        <v>95</v>
+      </c>
+      <c r="J71" s="33">
+        <v>100</v>
+      </c>
+      <c r="K71" s="33">
+        <v>100</v>
+      </c>
+      <c r="L71" s="33">
+        <v>100</v>
+      </c>
+      <c r="M71" s="34">
+        <f>J71+K71+L71</f>
+        <v>300</v>
+      </c>
+      <c r="N71">
+        <v>10</v>
+      </c>
+      <c r="O71">
+        <v>55</v>
+      </c>
+      <c r="P71" s="34">
+        <f>N71+O71</f>
+        <v>65</v>
+      </c>
+      <c r="Q71" s="33">
+        <f>E71+I71+M71+P71</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="14.25">
+      <c r="A72" s="33">
+        <v>70</v>
+      </c>
+      <c r="B72" s="33">
+        <v>45</v>
+      </c>
+      <c r="C72" s="33">
+        <v>35</v>
+      </c>
+      <c r="D72" s="33">
+        <v>100</v>
+      </c>
+      <c r="E72" s="34">
+        <v>180</v>
+      </c>
+      <c r="F72" s="33">
+        <v>50</v>
+      </c>
+      <c r="G72" s="33">
+        <v>100</v>
+      </c>
+      <c r="H72" s="33">
+        <v>10</v>
+      </c>
+      <c r="I72" s="34">
+        <v>160</v>
+      </c>
+      <c r="J72" s="33">
+        <v>100</v>
+      </c>
+      <c r="K72" s="33">
+        <v>100</v>
+      </c>
+      <c r="L72" s="33">
+        <v>80</v>
+      </c>
+      <c r="M72" s="34">
+        <f>J72+K72+L72</f>
+        <v>280</v>
+      </c>
+      <c r="N72">
+        <v>10</v>
+      </c>
+      <c r="O72">
+        <v>10</v>
+      </c>
+      <c r="P72" s="34">
+        <f>N72+O72</f>
+        <v>20</v>
+      </c>
+      <c r="Q72" s="33">
+        <f>E72+I72+M72+P72</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="14.25">
+      <c r="A73" s="33">
+        <v>71</v>
+      </c>
+      <c r="B73" s="33">
+        <v>15</v>
+      </c>
+      <c r="C73" s="33">
+        <v>35</v>
+      </c>
+      <c r="D73" s="33">
+        <v>25</v>
+      </c>
+      <c r="E73" s="34">
+        <v>75</v>
+      </c>
+      <c r="F73" s="33">
+        <v>100</v>
+      </c>
+      <c r="G73" s="33">
+        <v>35</v>
+      </c>
+      <c r="H73" s="33">
+        <v>100</v>
+      </c>
+      <c r="I73" s="34">
+        <v>235</v>
+      </c>
+      <c r="J73" s="33">
+        <v>100</v>
+      </c>
+      <c r="K73" s="33">
+        <v>60</v>
+      </c>
+      <c r="L73" s="33">
+        <v>100</v>
+      </c>
+      <c r="M73" s="34">
+        <f>J73+K73+L73</f>
+        <v>260</v>
+      </c>
+      <c r="N73">
+        <v>10</v>
+      </c>
+      <c r="O73">
+        <v>10</v>
+      </c>
+      <c r="P73" s="34">
+        <f>N73+O73</f>
+        <v>20</v>
+      </c>
+      <c r="Q73" s="33">
+        <f>E73+I73+M73+P73</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="14.25">
+      <c r="A74" s="33">
+        <v>72</v>
+      </c>
+      <c r="B74" s="33">
+        <v>100</v>
+      </c>
+      <c r="C74" s="33">
+        <v>10</v>
+      </c>
+      <c r="D74" s="33">
+        <v>25</v>
+      </c>
+      <c r="E74" s="34">
+        <v>135</v>
+      </c>
+      <c r="F74" s="33">
+        <v>45</v>
+      </c>
+      <c r="G74" s="33">
+        <v>45</v>
+      </c>
+      <c r="H74" s="33">
+        <v>60</v>
+      </c>
+      <c r="I74" s="34">
+        <v>150</v>
+      </c>
+      <c r="J74" s="33">
+        <v>55</v>
+      </c>
+      <c r="K74" s="33">
+        <v>10</v>
+      </c>
+      <c r="L74" s="33">
+        <v>30</v>
+      </c>
+      <c r="M74" s="34">
+        <f>J74+K74+L74</f>
+        <v>95</v>
+      </c>
+      <c r="N74">
+        <v>15</v>
+      </c>
+      <c r="O74">
+        <v>15</v>
+      </c>
+      <c r="P74" s="34">
+        <f>N74+O74</f>
+        <v>30</v>
+      </c>
+      <c r="Q74" s="33">
+        <f>E74+I74+M74+P74</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="14.25">
+      <c r="A75" s="33">
+        <v>73</v>
+      </c>
+      <c r="B75" s="33">
+        <v>55</v>
+      </c>
+      <c r="C75" s="33">
+        <v>35</v>
+      </c>
+      <c r="D75" s="33">
+        <v>20</v>
+      </c>
+      <c r="E75" s="34">
+        <v>110</v>
+      </c>
+      <c r="F75" s="33">
+        <v>20</v>
+      </c>
+      <c r="G75" s="33">
+        <v>35</v>
+      </c>
+      <c r="H75" s="33">
+        <v>35</v>
+      </c>
+      <c r="I75" s="34">
+        <v>90</v>
+      </c>
+      <c r="J75" s="33">
+        <v>40</v>
+      </c>
+      <c r="K75" s="33">
+        <v>5</v>
+      </c>
+      <c r="L75" s="33">
+        <v>50</v>
+      </c>
+      <c r="M75" s="34">
+        <f>J75+K75+L75</f>
+        <v>95</v>
+      </c>
+      <c r="N75">
+        <v>10</v>
+      </c>
+      <c r="O75">
+        <v>10</v>
+      </c>
+      <c r="P75" s="34">
+        <f>N75+O75</f>
+        <v>20</v>
+      </c>
+      <c r="Q75" s="33">
+        <f>E75+I75+M75+P75</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="14.25">
+      <c r="A76" s="33">
+        <v>74</v>
+      </c>
+      <c r="B76" s="33">
+        <v>10</v>
+      </c>
+      <c r="C76" s="33">
+        <v>100</v>
+      </c>
+      <c r="D76" s="33">
+        <v>15</v>
+      </c>
+      <c r="E76" s="34">
+        <v>125</v>
+      </c>
+      <c r="F76" s="33">
+        <v>30</v>
+      </c>
+      <c r="G76" s="33">
+        <v>100</v>
+      </c>
+      <c r="H76" s="33">
+        <v>45</v>
+      </c>
+      <c r="I76" s="34">
+        <v>175</v>
+      </c>
+      <c r="J76" s="33">
+        <v>15</v>
+      </c>
+      <c r="K76" s="33">
+        <v>20</v>
+      </c>
+      <c r="L76" s="33">
+        <v>25</v>
+      </c>
+      <c r="M76" s="34">
+        <f>J76+K76+L76</f>
+        <v>60</v>
+      </c>
+      <c r="N76">
+        <v>40</v>
+      </c>
+      <c r="O76">
+        <v>40</v>
+      </c>
+      <c r="P76" s="34">
+        <f>N76+O76</f>
+        <v>80</v>
+      </c>
+      <c r="Q76" s="33">
+        <f>E76+I76+M76+P76</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="14.25">
+      <c r="A77" s="33">
+        <v>75</v>
+      </c>
+      <c r="B77" s="33">
+        <v>15</v>
+      </c>
+      <c r="C77" s="33">
+        <v>30</v>
+      </c>
+      <c r="D77" s="33">
+        <v>30</v>
+      </c>
+      <c r="E77" s="34">
+        <v>75</v>
+      </c>
+      <c r="F77" s="33">
+        <v>30</v>
+      </c>
+      <c r="G77" s="33">
+        <v>50</v>
+      </c>
+      <c r="H77" s="33">
+        <v>15</v>
+      </c>
+      <c r="I77" s="34">
+        <v>95</v>
+      </c>
+      <c r="J77" s="33">
+        <v>50</v>
+      </c>
+      <c r="K77" s="33">
+        <v>20</v>
+      </c>
+      <c r="L77" s="33">
+        <v>45</v>
+      </c>
+      <c r="M77" s="34">
+        <f>J77+K77+L77</f>
+        <v>115</v>
+      </c>
+      <c r="N77">
+        <v>100</v>
+      </c>
+      <c r="O77">
+        <v>10</v>
+      </c>
+      <c r="P77" s="34">
+        <f>N77+O77</f>
+        <v>110</v>
+      </c>
+      <c r="Q77" s="33">
+        <f>E77+I77+M77+P77</f>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="14.25">
+      <c r="A78" s="33">
+        <v>76</v>
+      </c>
+      <c r="B78" s="33">
+        <v>25</v>
+      </c>
+      <c r="C78" s="33">
+        <v>25</v>
+      </c>
+      <c r="D78" s="33">
+        <v>100</v>
+      </c>
+      <c r="E78" s="34">
+        <v>150</v>
+      </c>
+      <c r="F78" s="33">
+        <v>15</v>
+      </c>
+      <c r="G78" s="33">
+        <v>60</v>
+      </c>
+      <c r="H78" s="33">
+        <v>20</v>
+      </c>
+      <c r="I78" s="34">
+        <v>95</v>
+      </c>
+      <c r="J78" s="33">
+        <v>10</v>
+      </c>
+      <c r="K78" s="33">
+        <v>10</v>
+      </c>
+      <c r="L78" s="33">
+        <v>15</v>
+      </c>
+      <c r="M78" s="34">
+        <f>J78+K78+L78</f>
+        <v>35</v>
+      </c>
+      <c r="N78">
+        <v>10</v>
+      </c>
+      <c r="O78">
+        <v>50</v>
+      </c>
+      <c r="P78" s="34">
+        <f>N78+O78</f>
+        <v>60</v>
+      </c>
+      <c r="Q78" s="33">
+        <f>E78+I78+M78+P78</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="14.25">
+      <c r="A79" s="33">
+        <v>77</v>
+      </c>
+      <c r="B79" s="33">
+        <v>20</v>
+      </c>
+      <c r="C79" s="33">
+        <v>20</v>
+      </c>
+      <c r="D79" s="33">
+        <v>35</v>
+      </c>
+      <c r="E79" s="34">
+        <v>75</v>
+      </c>
+      <c r="F79" s="33">
+        <v>15</v>
+      </c>
+      <c r="G79" s="33">
+        <v>25</v>
+      </c>
+      <c r="H79" s="33">
+        <v>40</v>
+      </c>
+      <c r="I79" s="34">
+        <v>80</v>
+      </c>
+      <c r="J79" s="33">
+        <v>30</v>
+      </c>
+      <c r="K79" s="33">
+        <v>100</v>
+      </c>
+      <c r="L79" s="33">
+        <v>45</v>
+      </c>
+      <c r="M79" s="34">
+        <f>J79+K79+L79</f>
+        <v>175</v>
+      </c>
+      <c r="N79">
+        <v>10</v>
+      </c>
+      <c r="O79">
+        <v>40</v>
+      </c>
+      <c r="P79" s="34">
+        <f>N79+O79</f>
+        <v>50</v>
+      </c>
+      <c r="Q79" s="33">
+        <f>E79+I79+M79+P79</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="14.25">
+      <c r="A80" s="33">
+        <v>78</v>
+      </c>
+      <c r="B80" s="33">
+        <v>15</v>
+      </c>
+      <c r="C80" s="33">
+        <v>25</v>
+      </c>
+      <c r="D80" s="33">
+        <v>55</v>
+      </c>
+      <c r="E80" s="34">
+        <v>95</v>
+      </c>
+      <c r="F80" s="33">
+        <v>25</v>
+      </c>
+      <c r="G80" s="33">
+        <v>40</v>
+      </c>
+      <c r="H80" s="33">
+        <v>25</v>
+      </c>
+      <c r="I80" s="34">
+        <v>90</v>
+      </c>
+      <c r="J80" s="33">
+        <v>20</v>
+      </c>
+      <c r="K80" s="33">
+        <v>100</v>
+      </c>
+      <c r="L80" s="33">
+        <v>10</v>
+      </c>
+      <c r="M80" s="34">
+        <f>J80+K80+L80</f>
+        <v>130</v>
+      </c>
+      <c r="N80">
+        <v>10</v>
+      </c>
+      <c r="O80">
+        <v>100</v>
+      </c>
+      <c r="P80" s="34">
+        <f>N80+O80</f>
+        <v>110</v>
+      </c>
+      <c r="Q80" s="33">
+        <f>E80+I80+M80+P80</f>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="14.25">
+      <c r="A81" s="33">
+        <v>79</v>
+      </c>
+      <c r="B81" s="33">
+        <v>30</v>
+      </c>
+      <c r="C81" s="33">
+        <v>30</v>
+      </c>
+      <c r="D81" s="33">
+        <v>25</v>
+      </c>
+      <c r="E81" s="34">
+        <v>85</v>
+      </c>
+      <c r="F81" s="33">
+        <v>25</v>
+      </c>
+      <c r="G81" s="33">
+        <v>35</v>
+      </c>
+      <c r="H81" s="33">
+        <v>25</v>
+      </c>
+      <c r="I81" s="34">
+        <v>85</v>
+      </c>
+      <c r="J81" s="33">
+        <v>15</v>
+      </c>
+      <c r="K81" s="33">
+        <v>100</v>
+      </c>
+      <c r="L81" s="33">
+        <v>5</v>
+      </c>
+      <c r="M81" s="34">
+        <f>J81+K81+L81</f>
+        <v>120</v>
+      </c>
+      <c r="N81">
+        <v>15</v>
+      </c>
+      <c r="O81">
+        <v>100</v>
+      </c>
+      <c r="P81" s="34">
+        <f>N81+O81</f>
+        <v>115</v>
+      </c>
+      <c r="Q81" s="33">
+        <f>E81+I81+M81+P81</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="14.25">
+      <c r="A82" s="33">
+        <v>80</v>
+      </c>
+      <c r="B82" s="33">
+        <v>20</v>
+      </c>
+      <c r="C82" s="33">
+        <v>10</v>
+      </c>
+      <c r="D82" s="33">
+        <v>40</v>
+      </c>
+      <c r="E82" s="34">
+        <v>70</v>
+      </c>
+      <c r="F82" s="33">
+        <v>5</v>
+      </c>
+      <c r="G82" s="33">
+        <v>40</v>
+      </c>
+      <c r="H82" s="33">
+        <v>50</v>
+      </c>
+      <c r="I82" s="34">
+        <v>95</v>
+      </c>
+      <c r="J82" s="33">
+        <v>20</v>
+      </c>
+      <c r="K82" s="33">
+        <v>40</v>
+      </c>
+      <c r="L82" s="33">
+        <v>15</v>
+      </c>
+      <c r="M82" s="34">
+        <f>J82+K82+L82</f>
+        <v>75</v>
+      </c>
+      <c r="N82">
+        <v>25</v>
+      </c>
+      <c r="O82">
+        <v>40</v>
+      </c>
+      <c r="P82" s="34">
+        <f>N82+O82</f>
+        <v>65</v>
+      </c>
+      <c r="Q82" s="33">
+        <f>E82+I82+M82+P82</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="14.25">
+      <c r="A83" s="33">
+        <v>81</v>
+      </c>
+      <c r="B83" s="33">
+        <v>15</v>
+      </c>
+      <c r="C83" s="33">
+        <v>15</v>
+      </c>
+      <c r="D83" s="33">
+        <v>25</v>
+      </c>
+      <c r="E83" s="34">
+        <v>55</v>
+      </c>
+      <c r="F83" s="33">
+        <v>100</v>
+      </c>
+      <c r="G83" s="33">
+        <v>45</v>
+      </c>
+      <c r="H83" s="33">
+        <v>40</v>
+      </c>
+      <c r="I83" s="34">
+        <v>185</v>
+      </c>
+      <c r="J83" s="33">
+        <v>40</v>
+      </c>
+      <c r="K83" s="33">
+        <v>5</v>
+      </c>
+      <c r="L83" s="33">
+        <v>30</v>
+      </c>
+      <c r="M83" s="34">
+        <f>J83+K83+L83</f>
+        <v>75</v>
+      </c>
+      <c r="N83">
+        <v>60</v>
+      </c>
+      <c r="O83">
+        <v>15</v>
+      </c>
+      <c r="P83" s="34">
+        <f>N83+O83</f>
+        <v>75</v>
+      </c>
+      <c r="Q83" s="33">
+        <f>E83+I83+M83+P83</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="14.25">
+      <c r="A84" s="33">
+        <v>82</v>
+      </c>
+      <c r="B84" s="33">
+        <v>100</v>
+      </c>
+      <c r="C84" s="33">
+        <v>100</v>
+      </c>
+      <c r="D84" s="33">
+        <v>20</v>
+      </c>
+      <c r="E84" s="34">
+        <v>220</v>
+      </c>
+      <c r="F84" s="33">
+        <v>100</v>
+      </c>
+      <c r="G84" s="33">
+        <v>30</v>
+      </c>
+      <c r="H84" s="33">
+        <v>100</v>
+      </c>
+      <c r="I84" s="34">
+        <v>230</v>
+      </c>
+      <c r="J84" s="33">
+        <v>100</v>
+      </c>
+      <c r="K84" s="33">
+        <v>10</v>
+      </c>
+      <c r="L84" s="33">
+        <v>15</v>
+      </c>
+      <c r="M84" s="34">
+        <f>J84+K84+L84</f>
+        <v>125</v>
+      </c>
+      <c r="N84">
+        <v>25</v>
+      </c>
+      <c r="O84">
+        <v>15</v>
+      </c>
+      <c r="P84" s="34">
+        <f>N84+O84</f>
+        <v>40</v>
+      </c>
+      <c r="Q84" s="33">
+        <f>E84+I84+M84+P84</f>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="14.25">
+      <c r="A85" s="33">
+        <v>83</v>
+      </c>
+      <c r="B85" s="33">
+        <v>5</v>
+      </c>
+      <c r="C85" s="33">
+        <v>35</v>
+      </c>
+      <c r="D85" s="33">
+        <v>10</v>
+      </c>
+      <c r="E85" s="34">
+        <v>50</v>
+      </c>
+      <c r="F85" s="33">
+        <v>45</v>
+      </c>
+      <c r="G85" s="33">
+        <v>100</v>
+      </c>
+      <c r="H85" s="33">
+        <v>30</v>
+      </c>
+      <c r="I85" s="34">
+        <v>175</v>
+      </c>
+      <c r="J85" s="33">
+        <v>100</v>
+      </c>
+      <c r="K85" s="33">
+        <v>15</v>
+      </c>
+      <c r="L85" s="33">
+        <v>100</v>
+      </c>
+      <c r="M85" s="34">
+        <f>J85+K85+L85</f>
+        <v>215</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="O85">
+        <v>15</v>
+      </c>
+      <c r="P85" s="34">
+        <f>N85+O85</f>
+        <v>20</v>
+      </c>
+      <c r="Q85" s="33">
+        <f>E85+I85+M85+P85</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="14.25">
+      <c r="A86" s="33">
+        <v>84</v>
+      </c>
+      <c r="B86" s="33">
+        <v>15</v>
+      </c>
+      <c r="C86" s="33">
+        <v>10</v>
+      </c>
+      <c r="D86" s="33">
+        <v>15</v>
+      </c>
+      <c r="E86" s="34">
+        <v>40</v>
+      </c>
+      <c r="F86" s="33">
+        <v>10</v>
+      </c>
+      <c r="G86" s="33">
+        <v>100</v>
+      </c>
+      <c r="H86" s="33">
+        <v>15</v>
+      </c>
+      <c r="I86" s="34">
+        <v>125</v>
+      </c>
+      <c r="J86" s="33">
+        <v>10</v>
+      </c>
+      <c r="K86" s="33">
+        <v>30</v>
+      </c>
+      <c r="L86" s="33">
+        <v>25</v>
+      </c>
+      <c r="M86" s="34">
+        <f>J86+K86+L86</f>
+        <v>65</v>
+      </c>
+      <c r="N86">
+        <v>20</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" s="34">
+        <f>N86+O86</f>
+        <v>20</v>
+      </c>
+      <c r="Q86" s="33">
+        <f>E86+I86+M86+P86</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="14.25">
+      <c r="A87" s="33">
+        <v>85</v>
+      </c>
+      <c r="B87" s="33">
+        <v>15</v>
+      </c>
+      <c r="C87" s="33">
+        <v>10</v>
+      </c>
+      <c r="D87" s="33">
+        <v>10</v>
+      </c>
+      <c r="E87" s="34">
+        <v>35</v>
+      </c>
+      <c r="F87" s="33">
+        <v>10</v>
+      </c>
+      <c r="G87" s="33">
+        <v>30</v>
+      </c>
+      <c r="H87" s="33">
+        <v>20</v>
+      </c>
+      <c r="I87" s="34">
+        <v>60</v>
+      </c>
+      <c r="J87" s="33">
+        <v>10</v>
+      </c>
+      <c r="K87" s="33">
+        <v>45</v>
+      </c>
+      <c r="L87" s="33">
+        <v>5</v>
+      </c>
+      <c r="M87" s="34">
+        <f>J87+K87+L87</f>
+        <v>60</v>
+      </c>
+      <c r="N87">
+        <v>10</v>
+      </c>
+      <c r="O87">
+        <v>5</v>
+      </c>
+      <c r="P87" s="34">
+        <f>N87+O87</f>
+        <v>15</v>
+      </c>
+      <c r="Q87" s="33">
+        <f>E87+I87+M87+P87</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="14.25">
+      <c r="A88" s="33">
+        <v>86</v>
+      </c>
+      <c r="B88" s="33">
+        <v>15</v>
+      </c>
+      <c r="C88" s="33">
+        <v>20</v>
+      </c>
+      <c r="D88" s="33">
+        <v>100</v>
+      </c>
+      <c r="E88" s="34">
+        <v>135</v>
+      </c>
+      <c r="F88" s="33">
+        <v>25</v>
+      </c>
+      <c r="G88" s="33">
+        <v>40</v>
+      </c>
+      <c r="H88" s="33">
+        <v>5</v>
+      </c>
+      <c r="I88" s="34">
+        <v>70</v>
+      </c>
+      <c r="J88" s="33">
+        <v>0</v>
+      </c>
+      <c r="K88" s="33">
+        <v>10</v>
+      </c>
+      <c r="L88" s="33">
+        <v>5</v>
+      </c>
+      <c r="M88" s="34">
+        <f>J88+K88+L88</f>
+        <v>15</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" s="34">
+        <f>N88+O88</f>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="33">
+        <f>E88+I88+M88+P88</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="14.25">
+      <c r="A89" s="33">
+        <v>87</v>
+      </c>
+      <c r="B89" s="33">
+        <v>100</v>
+      </c>
+      <c r="C89" s="33">
+        <v>5</v>
+      </c>
+      <c r="D89" s="33">
+        <v>10</v>
+      </c>
+      <c r="E89" s="34">
+        <v>115</v>
+      </c>
+      <c r="F89" s="33">
+        <v>5</v>
+      </c>
+      <c r="G89" s="33">
+        <v>20</v>
+      </c>
+      <c r="H89" s="33">
+        <v>5</v>
+      </c>
+      <c r="I89" s="34">
+        <v>30</v>
+      </c>
+      <c r="J89" s="33">
+        <v>15</v>
+      </c>
+      <c r="K89" s="33">
+        <v>0</v>
+      </c>
+      <c r="L89" s="33">
+        <v>10</v>
+      </c>
+      <c r="M89" s="34">
+        <f>J89+K89+L89</f>
+        <v>25</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" s="34">
+        <f>N89+O89</f>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="33">
+        <f>E89+I89+M89+P89</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="14.25">
+      <c r="A90" s="33">
+        <v>88</v>
+      </c>
+      <c r="B90" s="33">
+        <v>55</v>
+      </c>
+      <c r="C90" s="33">
+        <v>20</v>
+      </c>
+      <c r="D90" s="33">
+        <v>10</v>
+      </c>
+      <c r="E90" s="34">
+        <v>85</v>
+      </c>
+      <c r="F90" s="33">
+        <v>10</v>
+      </c>
+      <c r="G90" s="33">
+        <v>45</v>
+      </c>
+      <c r="H90" s="33">
+        <v>10</v>
+      </c>
+      <c r="I90" s="34">
+        <v>65</v>
+      </c>
+      <c r="J90" s="33">
+        <v>5</v>
+      </c>
+      <c r="K90" s="33">
+        <v>0</v>
+      </c>
+      <c r="L90" s="33">
+        <v>0</v>
+      </c>
+      <c r="M90" s="34">
+        <f>J90+K90+L90</f>
+        <v>5</v>
+      </c>
+      <c r="N90">
+        <v>100</v>
+      </c>
+      <c r="O90">
+        <v>20</v>
+      </c>
+      <c r="P90" s="34">
+        <f>N90+O90</f>
+        <v>120</v>
+      </c>
+      <c r="Q90" s="33">
+        <f>E90+I90+M90+P90</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="14.25">
+      <c r="A91" s="33">
+        <v>89</v>
+      </c>
+      <c r="B91" s="33">
+        <v>20</v>
+      </c>
+      <c r="C91" s="33">
+        <v>55</v>
+      </c>
+      <c r="D91" s="33">
+        <v>100</v>
+      </c>
+      <c r="E91" s="34">
+        <v>175</v>
+      </c>
+      <c r="F91" s="33">
+        <v>15</v>
+      </c>
+      <c r="G91" s="33">
+        <v>15</v>
+      </c>
+      <c r="H91" s="33">
+        <v>35</v>
+      </c>
+      <c r="I91" s="34">
+        <v>65</v>
+      </c>
+      <c r="J91" s="33">
+        <v>10</v>
+      </c>
+      <c r="K91" s="33">
+        <v>10</v>
+      </c>
+      <c r="L91" s="33">
+        <v>5</v>
+      </c>
+      <c r="M91" s="34">
+        <f>J91+K91+L91</f>
+        <v>25</v>
+      </c>
+      <c r="N91">
+        <v>100</v>
+      </c>
+      <c r="O91">
+        <v>15</v>
+      </c>
+      <c r="P91" s="34">
+        <f>N91+O91</f>
+        <v>115</v>
+      </c>
+      <c r="Q91" s="33">
+        <f>E91+I91+M91+P91</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="14.25">
+      <c r="A92" s="33">
+        <v>90</v>
+      </c>
+      <c r="B92" s="33">
+        <v>30</v>
+      </c>
+      <c r="C92" s="33">
+        <v>15</v>
+      </c>
+      <c r="D92" s="33">
+        <v>15</v>
+      </c>
+      <c r="E92" s="34">
+        <v>60</v>
+      </c>
+      <c r="F92" s="33">
+        <v>5</v>
+      </c>
+      <c r="G92" s="33">
+        <v>40</v>
+      </c>
+      <c r="H92" s="33">
+        <v>15</v>
+      </c>
+      <c r="I92" s="34">
+        <v>60</v>
+      </c>
+      <c r="J92" s="33">
+        <v>0</v>
+      </c>
+      <c r="K92" s="33">
+        <v>0</v>
+      </c>
+      <c r="L92" s="33">
+        <v>0</v>
+      </c>
+      <c r="M92" s="34">
+        <f>J92+K92+L92</f>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>5</v>
+      </c>
+      <c r="O92">
+        <v>100</v>
+      </c>
+      <c r="P92" s="34">
+        <f>N92+O92</f>
+        <v>105</v>
+      </c>
+      <c r="Q92" s="33">
+        <f>E92+I92+M92+P92</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="14.25">
+      <c r="A93" s="33">
+        <v>91</v>
+      </c>
+      <c r="B93" s="33">
+        <v>10</v>
+      </c>
+      <c r="C93" s="33">
+        <v>100</v>
+      </c>
+      <c r="D93" s="33">
+        <v>15</v>
+      </c>
+      <c r="E93" s="34">
+        <v>125</v>
+      </c>
+      <c r="F93" s="33">
+        <v>5</v>
+      </c>
+      <c r="G93" s="33">
+        <v>70</v>
+      </c>
+      <c r="H93" s="33">
+        <v>0</v>
+      </c>
+      <c r="I93" s="34">
+        <v>75</v>
+      </c>
+      <c r="J93" s="33">
+        <v>0</v>
+      </c>
+      <c r="K93" s="33">
+        <v>100</v>
+      </c>
+      <c r="L93" s="33">
+        <v>0</v>
+      </c>
+      <c r="M93" s="34">
+        <f>J93+K93+L93</f>
+        <v>100</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>10</v>
+      </c>
+      <c r="P93" s="34">
+        <f>N93+O93</f>
+        <v>10</v>
+      </c>
+      <c r="Q93" s="33">
+        <f>E93+I93+M93+P93</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="14.25">
+      <c r="A94" s="33">
+        <v>92</v>
+      </c>
+      <c r="B94" s="33">
+        <v>5</v>
+      </c>
+      <c r="C94" s="33">
+        <v>50</v>
+      </c>
+      <c r="D94" s="33">
+        <v>15</v>
+      </c>
+      <c r="E94" s="34">
+        <v>70</v>
+      </c>
+      <c r="F94" s="33">
+        <v>0</v>
+      </c>
+      <c r="G94" s="33">
+        <v>45</v>
+      </c>
+      <c r="H94" s="33">
+        <v>100</v>
+      </c>
+      <c r="I94" s="34">
+        <v>145</v>
+      </c>
+      <c r="J94" s="33">
+        <v>10</v>
+      </c>
+      <c r="K94" s="33">
+        <v>15</v>
+      </c>
+      <c r="L94" s="33">
+        <v>15</v>
+      </c>
+      <c r="M94" s="34">
+        <f>J94+K94+L94</f>
+        <v>40</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94">
+        <v>5</v>
+      </c>
+      <c r="P94" s="34">
+        <f>N94+O94</f>
+        <v>10</v>
+      </c>
+      <c r="Q94" s="33">
+        <f>E94+I94+M94+P94</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="14.25">
+      <c r="A95" s="33">
+        <v>93</v>
+      </c>
+      <c r="B95" s="33">
+        <v>20</v>
+      </c>
+      <c r="C95" s="33">
+        <v>15</v>
+      </c>
+      <c r="D95" s="33">
+        <v>40</v>
+      </c>
+      <c r="E95" s="34">
+        <v>75</v>
+      </c>
+      <c r="F95" s="33">
+        <v>10</v>
+      </c>
+      <c r="G95" s="33">
+        <v>100</v>
+      </c>
+      <c r="H95" s="33">
+        <v>5</v>
+      </c>
+      <c r="I95" s="34">
+        <v>115</v>
+      </c>
+      <c r="J95" s="33">
+        <v>5</v>
+      </c>
+      <c r="K95" s="33">
+        <v>10</v>
+      </c>
+      <c r="L95" s="33">
+        <v>100</v>
+      </c>
+      <c r="M95" s="34">
+        <f>J95+K95+L95</f>
+        <v>115</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" s="34">
+        <f>N95+O95</f>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="33">
+        <f>E95+I95+M95+P95</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="14.25">
+      <c r="A96" s="33">
+        <v>94</v>
+      </c>
+      <c r="B96" s="33">
+        <v>20</v>
+      </c>
+      <c r="C96" s="33">
+        <v>15</v>
+      </c>
+      <c r="D96" s="33">
+        <v>10</v>
+      </c>
+      <c r="E96" s="34">
+        <v>45</v>
+      </c>
+      <c r="F96" s="33">
+        <v>100</v>
+      </c>
+      <c r="G96" s="33">
+        <v>20</v>
+      </c>
+      <c r="H96" s="33">
+        <v>5</v>
+      </c>
+      <c r="I96" s="34">
+        <v>125</v>
+      </c>
+      <c r="J96" s="33">
+        <v>40</v>
+      </c>
+      <c r="K96" s="33">
+        <v>5</v>
+      </c>
+      <c r="L96" s="33">
+        <v>20</v>
+      </c>
+      <c r="M96" s="34">
+        <f>J96+K96+L96</f>
+        <v>65</v>
+      </c>
+      <c r="N96">
+        <v>5</v>
+      </c>
+      <c r="O96">
+        <v>25</v>
+      </c>
+      <c r="P96" s="34">
+        <f>N96+O96</f>
+        <v>30</v>
+      </c>
+      <c r="Q96" s="33">
+        <f>E96+I96+M96+P96</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="14.25">
+      <c r="A97" s="33">
+        <v>95</v>
+      </c>
+      <c r="B97" s="33">
+        <v>15</v>
+      </c>
+      <c r="C97" s="33">
+        <v>20</v>
+      </c>
+      <c r="D97" s="33">
+        <v>100</v>
+      </c>
+      <c r="E97" s="34">
+        <v>135</v>
+      </c>
+      <c r="F97" s="33">
+        <v>25</v>
+      </c>
+      <c r="G97" s="33">
+        <v>100</v>
+      </c>
+      <c r="H97" s="33">
+        <v>5</v>
+      </c>
+      <c r="I97" s="34">
+        <v>130</v>
+      </c>
+      <c r="J97" s="33">
+        <v>100</v>
+      </c>
+      <c r="K97" s="33">
+        <v>5</v>
+      </c>
+      <c r="L97" s="33">
+        <v>0</v>
+      </c>
+      <c r="M97" s="34">
+        <f>J97+K97+L97</f>
+        <v>105</v>
+      </c>
+      <c r="N97">
+        <v>20</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" s="34">
+        <f>N97+O97</f>
+        <v>20</v>
+      </c>
+      <c r="Q97" s="33">
+        <f>E97+I97+M97+P97</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="14.25">
+      <c r="A98" s="33">
+        <v>96</v>
+      </c>
+      <c r="B98" s="33">
+        <v>25</v>
+      </c>
+      <c r="C98" s="33">
+        <v>5</v>
+      </c>
+      <c r="D98" s="33">
+        <v>40</v>
+      </c>
+      <c r="E98" s="34">
+        <v>70</v>
+      </c>
+      <c r="F98" s="33">
+        <v>45</v>
+      </c>
+      <c r="G98" s="33">
+        <v>15</v>
+      </c>
+      <c r="H98" s="33">
+        <v>5</v>
+      </c>
+      <c r="I98" s="34">
+        <v>65</v>
+      </c>
+      <c r="J98" s="33">
+        <v>20</v>
+      </c>
+      <c r="K98" s="33">
+        <v>5</v>
+      </c>
+      <c r="L98" s="33">
+        <v>0</v>
+      </c>
+      <c r="M98" s="34">
+        <f>J98+K98+L98</f>
+        <v>25</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98">
+        <v>5</v>
+      </c>
+      <c r="P98" s="34">
+        <f>N98+O98</f>
+        <v>10</v>
+      </c>
+      <c r="Q98" s="33">
+        <f>E98+I98+M98+P98</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="14.25">
+      <c r="A99" s="33">
+        <v>97</v>
+      </c>
+      <c r="B99" s="33">
+        <v>15</v>
+      </c>
+      <c r="C99" s="33">
+        <v>15</v>
+      </c>
+      <c r="D99" s="33">
+        <v>25</v>
+      </c>
+      <c r="E99" s="34">
+        <v>55</v>
+      </c>
+      <c r="F99" s="33">
+        <v>10</v>
+      </c>
+      <c r="G99" s="33">
+        <v>45</v>
+      </c>
+      <c r="H99" s="33">
+        <v>20</v>
+      </c>
+      <c r="I99" s="34">
+        <v>75</v>
+      </c>
+      <c r="J99" s="33">
+        <v>15</v>
+      </c>
+      <c r="K99" s="33">
+        <v>20</v>
+      </c>
+      <c r="L99" s="33">
+        <v>15</v>
+      </c>
+      <c r="M99" s="34">
+        <f>J99+K99+L99</f>
+        <v>50</v>
+      </c>
+      <c r="N99">
+        <v>25</v>
+      </c>
+      <c r="O99">
+        <v>100</v>
+      </c>
+      <c r="P99" s="34">
+        <f>N99+O99</f>
+        <v>125</v>
+      </c>
+      <c r="Q99" s="33">
+        <f>E99+I99+M99+P99</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="14.25">
+      <c r="A100" s="33">
+        <v>98</v>
+      </c>
+      <c r="B100" s="33">
+        <v>100</v>
+      </c>
+      <c r="C100" s="33">
+        <v>10</v>
+      </c>
+      <c r="D100" s="33">
+        <v>20</v>
+      </c>
+      <c r="E100" s="34">
+        <v>130</v>
+      </c>
+      <c r="F100" s="33">
+        <v>20</v>
+      </c>
+      <c r="G100" s="33">
+        <v>15</v>
+      </c>
+      <c r="H100" s="33">
+        <v>20</v>
+      </c>
+      <c r="I100" s="34">
+        <v>55</v>
+      </c>
+      <c r="J100" s="33">
+        <v>0</v>
+      </c>
+      <c r="K100" s="33">
+        <v>20</v>
+      </c>
+      <c r="L100" s="33">
+        <v>5</v>
+      </c>
+      <c r="M100" s="34">
+        <f>J100+K100+L100</f>
+        <v>25</v>
+      </c>
+      <c r="N100">
+        <v>10</v>
+      </c>
+      <c r="O100">
+        <v>15</v>
+      </c>
+      <c r="P100" s="34">
+        <f>N100+O100</f>
+        <v>25</v>
+      </c>
+      <c r="Q100" s="33">
+        <f>E100+I100+M100+P100</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="14.25">
+      <c r="A101" s="33">
+        <v>99</v>
+      </c>
+      <c r="B101" s="33">
+        <v>15</v>
+      </c>
+      <c r="C101" s="33">
+        <v>25</v>
+      </c>
+      <c r="D101" s="33">
+        <v>25</v>
+      </c>
+      <c r="E101" s="34">
+        <v>65</v>
+      </c>
+      <c r="F101" s="33">
+        <v>30</v>
+      </c>
+      <c r="G101" s="33">
+        <v>30</v>
+      </c>
+      <c r="H101" s="33">
+        <v>20</v>
+      </c>
+      <c r="I101" s="34">
+        <v>80</v>
+      </c>
+      <c r="J101" s="33">
+        <v>20</v>
+      </c>
+      <c r="K101" s="33">
+        <v>5</v>
+      </c>
+      <c r="L101" s="33">
+        <v>45</v>
+      </c>
+      <c r="M101" s="34">
+        <f>J101+K101+L101</f>
+        <v>70</v>
+      </c>
+      <c r="N101">
+        <v>15</v>
+      </c>
+      <c r="O101">
+        <v>30</v>
+      </c>
+      <c r="P101" s="34">
+        <f>N101+O101</f>
+        <v>45</v>
+      </c>
+      <c r="Q101" s="33">
+        <f>E101+I101+M101+P101</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="14.25">
+      <c r="A102" s="33">
+        <v>100</v>
+      </c>
+      <c r="B102" s="33">
+        <v>100</v>
+      </c>
+      <c r="C102" s="33">
+        <v>100</v>
+      </c>
+      <c r="D102" s="33">
+        <v>100</v>
+      </c>
+      <c r="E102" s="34">
+        <v>300</v>
+      </c>
+      <c r="F102" s="33">
+        <v>100</v>
+      </c>
+      <c r="G102" s="33">
+        <v>100</v>
+      </c>
+      <c r="H102" s="33">
+        <v>100</v>
+      </c>
+      <c r="I102" s="34">
+        <v>300</v>
+      </c>
+      <c r="J102" s="33">
+        <v>100</v>
+      </c>
+      <c r="K102" s="33">
+        <v>100</v>
+      </c>
+      <c r="L102" s="33">
+        <v>100</v>
+      </c>
+      <c r="M102" s="34">
+        <f>J102+K102+L102</f>
+        <v>300</v>
+      </c>
+      <c r="N102">
+        <v>100</v>
+      </c>
+      <c r="O102">
+        <v>100</v>
+      </c>
+      <c r="P102" s="34">
+        <f>N102+O102</f>
+        <v>200</v>
+      </c>
+      <c r="Q102" s="33">
+        <f>E102+I102+M102+P102</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="14.25">
+      <c r="A103" s="33">
+        <v>101</v>
+      </c>
+      <c r="B103" s="33">
+        <v>30</v>
+      </c>
+      <c r="C103" s="33">
+        <v>15</v>
+      </c>
+      <c r="D103" s="33">
+        <v>15</v>
+      </c>
+      <c r="E103" s="34">
+        <v>60</v>
+      </c>
+      <c r="F103" s="33">
+        <v>100</v>
+      </c>
+      <c r="G103" s="33">
+        <v>50</v>
+      </c>
+      <c r="H103" s="33">
+        <v>20</v>
+      </c>
+      <c r="I103" s="34">
+        <v>170</v>
+      </c>
+      <c r="J103" s="33">
+        <v>100</v>
+      </c>
+      <c r="K103" s="33">
+        <v>15</v>
+      </c>
+      <c r="L103" s="33">
+        <v>45</v>
+      </c>
+      <c r="M103" s="34">
+        <f>J103+K103+L103</f>
+        <v>160</v>
+      </c>
+      <c r="N103">
+        <v>40</v>
+      </c>
+      <c r="O103">
+        <v>100</v>
+      </c>
+      <c r="P103" s="34">
+        <f>N103+O103</f>
+        <v>140</v>
+      </c>
+      <c r="Q103" s="33">
+        <f>E103+I103+M103+P103</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="14.25">
+      <c r="A104" s="33">
+        <v>102</v>
+      </c>
+      <c r="B104" s="33">
+        <v>45</v>
+      </c>
+      <c r="C104" s="33">
+        <v>20</v>
+      </c>
+      <c r="D104" s="33">
+        <v>45</v>
+      </c>
+      <c r="E104" s="34">
+        <v>110</v>
+      </c>
+      <c r="F104" s="33">
+        <v>40</v>
+      </c>
+      <c r="G104" s="33">
+        <v>35</v>
+      </c>
+      <c r="H104" s="33">
+        <v>15</v>
+      </c>
+      <c r="I104" s="34">
+        <v>90</v>
+      </c>
+      <c r="J104" s="33">
+        <v>60</v>
+      </c>
+      <c r="K104" s="33">
+        <v>10</v>
+      </c>
+      <c r="L104" s="33">
+        <v>5</v>
+      </c>
+      <c r="M104" s="34">
+        <f>J104+K104+L104</f>
+        <v>75</v>
+      </c>
+      <c r="N104">
+        <v>10</v>
+      </c>
+      <c r="O104">
+        <v>100</v>
+      </c>
+      <c r="P104" s="34">
+        <f>N104+O104</f>
+        <v>110</v>
+      </c>
+      <c r="Q104" s="33">
+        <f>E104+I104+M104+P104</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="14.25">
+      <c r="A105" s="33">
+        <v>103</v>
+      </c>
+      <c r="B105" s="33">
+        <v>15</v>
+      </c>
+      <c r="C105" s="33">
+        <v>5</v>
+      </c>
+      <c r="D105" s="33">
+        <v>15</v>
+      </c>
+      <c r="E105" s="34">
+        <v>35</v>
+      </c>
+      <c r="F105" s="33">
+        <v>20</v>
+      </c>
+      <c r="G105" s="33">
+        <v>15</v>
+      </c>
+      <c r="H105" s="33">
+        <v>40</v>
+      </c>
+      <c r="I105" s="34">
+        <v>75</v>
+      </c>
+      <c r="J105" s="33">
+        <v>15</v>
+      </c>
+      <c r="K105" s="33">
+        <v>20</v>
+      </c>
+      <c r="L105" s="33">
+        <v>65</v>
+      </c>
+      <c r="M105" s="34">
+        <f>J105+K105+L105</f>
+        <v>100</v>
+      </c>
+      <c r="N105">
+        <v>10</v>
+      </c>
+      <c r="O105">
+        <v>45</v>
+      </c>
+      <c r="P105" s="34">
+        <f>N105+O105</f>
+        <v>55</v>
+      </c>
+      <c r="Q105" s="33">
+        <f>E105+I105+M105+P105</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="14.25">
+      <c r="A106" s="33">
+        <v>104</v>
+      </c>
+      <c r="B106" s="33">
+        <v>15</v>
+      </c>
+      <c r="C106" s="33">
+        <v>5</v>
+      </c>
+      <c r="D106" s="33">
+        <v>45</v>
+      </c>
+      <c r="E106" s="34">
+        <v>65</v>
+      </c>
+      <c r="F106" s="33">
+        <v>10</v>
+      </c>
+      <c r="G106" s="33">
+        <v>60</v>
+      </c>
+      <c r="H106" s="33">
+        <v>30</v>
+      </c>
+      <c r="I106" s="34">
+        <v>100</v>
+      </c>
+      <c r="J106" s="33">
+        <v>5</v>
+      </c>
+      <c r="K106" s="33">
+        <v>10</v>
+      </c>
+      <c r="L106" s="33">
+        <v>55</v>
+      </c>
+      <c r="M106" s="34">
+        <f>J106+K106+L106</f>
+        <v>70</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+      <c r="O106">
+        <v>5</v>
+      </c>
+      <c r="P106" s="34">
+        <f>N106+O106</f>
+        <v>10</v>
+      </c>
+      <c r="Q106" s="33">
+        <f>E106+I106+M106+P106</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="14.25">
+      <c r="A107" s="33">
+        <v>105</v>
+      </c>
+      <c r="B107" s="33">
+        <v>15</v>
+      </c>
+      <c r="C107" s="33">
+        <v>20</v>
+      </c>
+      <c r="D107" s="33">
+        <v>15</v>
+      </c>
+      <c r="E107" s="34">
+        <v>50</v>
+      </c>
+      <c r="F107" s="33">
+        <v>15</v>
+      </c>
+      <c r="G107" s="33">
+        <v>35</v>
+      </c>
+      <c r="H107" s="33">
+        <v>30</v>
+      </c>
+      <c r="I107" s="34">
+        <v>80</v>
+      </c>
+      <c r="J107" s="33">
+        <v>0</v>
+      </c>
+      <c r="K107" s="33">
+        <v>5</v>
+      </c>
+      <c r="L107" s="33">
+        <v>0</v>
+      </c>
+      <c r="M107" s="34">
+        <f>J107+K107+L107</f>
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" s="34">
+        <f>N107+O107</f>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="33">
+        <f>E107+I107+M107+P107</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="14.25">
+      <c r="A108" s="33">
+        <v>106</v>
+      </c>
+      <c r="B108" s="33">
+        <v>15</v>
+      </c>
+      <c r="C108" s="33">
+        <v>15</v>
+      </c>
+      <c r="D108" s="33">
+        <v>20</v>
+      </c>
+      <c r="E108" s="34">
+        <v>50</v>
+      </c>
+      <c r="F108" s="33">
+        <v>10</v>
+      </c>
+      <c r="G108" s="33">
+        <v>15</v>
+      </c>
+      <c r="H108" s="33">
+        <v>30</v>
+      </c>
+      <c r="I108" s="34">
+        <v>55</v>
+      </c>
+      <c r="J108" s="33">
+        <v>0</v>
+      </c>
+      <c r="K108" s="33">
+        <v>0</v>
+      </c>
+      <c r="L108" s="33">
+        <v>5</v>
+      </c>
+      <c r="M108" s="34">
+        <f>J108+K108+L108</f>
+        <v>5</v>
+      </c>
+      <c r="N108">
+        <v>5</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" s="34">
+        <f>N108+O108</f>
+        <v>5</v>
+      </c>
+      <c r="Q108" s="33">
+        <f>E108+I108+M108+P108</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="14.25">
+      <c r="A109" s="33">
+        <v>107</v>
+      </c>
+      <c r="B109" s="33">
+        <v>25</v>
+      </c>
+      <c r="C109" s="33">
+        <v>100</v>
+      </c>
+      <c r="D109" s="33">
+        <v>15</v>
+      </c>
+      <c r="E109" s="34">
+        <v>140</v>
+      </c>
+      <c r="F109" s="33">
+        <v>20</v>
+      </c>
+      <c r="G109" s="33">
+        <v>35</v>
+      </c>
+      <c r="H109" s="33">
+        <v>20</v>
+      </c>
+      <c r="I109" s="34">
+        <v>75</v>
+      </c>
+      <c r="J109" s="33">
+        <v>15</v>
+      </c>
+      <c r="K109" s="33">
+        <v>20</v>
+      </c>
+      <c r="L109" s="33">
+        <v>5</v>
+      </c>
+      <c r="M109" s="34">
+        <f>J109+K109+L109</f>
+        <v>40</v>
+      </c>
+      <c r="N109">
+        <v>15</v>
+      </c>
+      <c r="O109">
+        <v>20</v>
+      </c>
+      <c r="P109" s="34">
+        <f>N109+O109</f>
+        <v>35</v>
+      </c>
+      <c r="Q109" s="33">
+        <f>E109+I109+M109+P109</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="14.25">
+      <c r="A110" s="33">
+        <v>108</v>
+      </c>
+      <c r="B110" s="33">
+        <v>20</v>
+      </c>
+      <c r="C110" s="33">
+        <v>35</v>
+      </c>
+      <c r="D110" s="33">
+        <v>15</v>
+      </c>
+      <c r="E110" s="34">
+        <v>70</v>
+      </c>
+      <c r="F110" s="33">
+        <v>15</v>
+      </c>
+      <c r="G110" s="33">
+        <v>100</v>
+      </c>
+      <c r="H110" s="33">
+        <v>35</v>
+      </c>
+      <c r="I110" s="34">
+        <v>150</v>
+      </c>
+      <c r="J110" s="33">
+        <v>25</v>
+      </c>
+      <c r="K110" s="33">
+        <v>100</v>
+      </c>
+      <c r="L110" s="33">
+        <v>20</v>
+      </c>
+      <c r="M110" s="34">
+        <f>J110+K110+L110</f>
+        <v>145</v>
+      </c>
+      <c r="N110">
+        <v>100</v>
+      </c>
+      <c r="O110">
+        <v>5</v>
+      </c>
+      <c r="P110" s="34">
+        <f>N110+O110</f>
+        <v>105</v>
+      </c>
+      <c r="Q110" s="33">
+        <f>E110+I110+M110+P110</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="14.25">
+      <c r="A111" s="33">
+        <v>109</v>
+      </c>
+      <c r="B111" s="33">
+        <v>10</v>
+      </c>
+      <c r="C111" s="33">
+        <v>65</v>
+      </c>
+      <c r="D111" s="33">
+        <v>100</v>
+      </c>
+      <c r="E111" s="34">
+        <v>175</v>
+      </c>
+      <c r="F111" s="33">
+        <v>25</v>
+      </c>
+      <c r="G111" s="33">
+        <v>45</v>
+      </c>
+      <c r="H111" s="33">
+        <v>100</v>
+      </c>
+      <c r="I111" s="34">
+        <v>170</v>
+      </c>
+      <c r="J111" s="33">
+        <v>0</v>
+      </c>
+      <c r="K111" s="33">
+        <v>30</v>
+      </c>
+      <c r="L111" s="33">
+        <v>0</v>
+      </c>
+      <c r="M111" s="34">
+        <f>J111+K111+L111</f>
+        <v>30</v>
+      </c>
+      <c r="N111">
+        <v>100</v>
+      </c>
+      <c r="O111">
+        <v>5</v>
+      </c>
+      <c r="P111" s="34">
+        <f>N111+O111</f>
+        <v>105</v>
+      </c>
+      <c r="Q111" s="33">
+        <f>E111+I111+M111+P111</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="14.25">
+      <c r="A112" s="33">
+        <v>110</v>
+      </c>
+      <c r="B112" s="33">
+        <v>5</v>
+      </c>
+      <c r="C112" s="33">
+        <v>40</v>
+      </c>
+      <c r="D112" s="33">
+        <v>35</v>
+      </c>
+      <c r="E112" s="34">
+        <v>80</v>
+      </c>
+      <c r="F112" s="33">
+        <v>25</v>
+      </c>
+      <c r="G112" s="33">
+        <v>15</v>
+      </c>
+      <c r="H112" s="33">
+        <v>35</v>
+      </c>
+      <c r="I112" s="34">
+        <v>75</v>
+      </c>
+      <c r="J112" s="33">
+        <v>0</v>
+      </c>
+      <c r="K112" s="33">
+        <v>10</v>
+      </c>
+      <c r="L112" s="33">
+        <v>20</v>
+      </c>
+      <c r="M112" s="34">
+        <f>J112+K112+L112</f>
+        <v>30</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" s="34">
+        <f>N112+O112</f>
+        <v>5</v>
+      </c>
+      <c r="Q112" s="33">
+        <f>E112+I112+M112+P112</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="14.25">
+      <c r="A113" s="33">
+        <v>111</v>
+      </c>
+      <c r="B113" s="33">
+        <v>100</v>
+      </c>
+      <c r="C113" s="33">
+        <v>15</v>
+      </c>
+      <c r="D113" s="33">
+        <v>10</v>
+      </c>
+      <c r="E113" s="34">
+        <v>125</v>
+      </c>
+      <c r="F113" s="33">
+        <v>100</v>
+      </c>
+      <c r="G113" s="33">
+        <v>25</v>
+      </c>
+      <c r="H113" s="33">
+        <v>15</v>
+      </c>
+      <c r="I113" s="34">
+        <v>140</v>
+      </c>
+      <c r="J113" s="33">
+        <v>30</v>
+      </c>
+      <c r="K113" s="33">
+        <v>10</v>
+      </c>
+      <c r="L113" s="33">
+        <v>15</v>
+      </c>
+      <c r="M113" s="34">
+        <f>J113+K113+L113</f>
+        <v>55</v>
+      </c>
+      <c r="N113">
+        <v>25</v>
+      </c>
+      <c r="O113">
+        <v>15</v>
+      </c>
+      <c r="P113" s="34">
+        <f>N113+O113</f>
+        <v>40</v>
+      </c>
+      <c r="Q113" s="33">
+        <f>E113+I113+M113+P113</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="14.25">
+      <c r="A114" s="33">
+        <v>112</v>
+      </c>
+      <c r="B114" s="33">
+        <v>50</v>
+      </c>
+      <c r="C114" s="33">
+        <v>15</v>
+      </c>
+      <c r="D114" s="33">
+        <v>5</v>
+      </c>
+      <c r="E114" s="34">
+        <v>70</v>
+      </c>
+      <c r="F114" s="33">
+        <v>45</v>
+      </c>
+      <c r="G114" s="33">
+        <v>15</v>
+      </c>
+      <c r="H114" s="33">
+        <v>15</v>
+      </c>
+      <c r="I114" s="34">
+        <v>75</v>
+      </c>
+      <c r="J114" s="33">
+        <v>20</v>
+      </c>
+      <c r="K114" s="33">
+        <v>10</v>
+      </c>
+      <c r="L114" s="33">
+        <v>100</v>
+      </c>
+      <c r="M114" s="34">
+        <f>J114+K114+L114</f>
+        <v>130</v>
+      </c>
+      <c r="N114">
+        <v>10</v>
+      </c>
+      <c r="O114">
+        <v>5</v>
+      </c>
+      <c r="P114" s="34">
+        <f>N114+O114</f>
+        <v>15</v>
+      </c>
+      <c r="Q114" s="33">
+        <f>E114+I114+M114+P114</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="14.25">
+      <c r="A115" s="33">
+        <v>113</v>
+      </c>
+      <c r="B115" s="33">
+        <v>40</v>
+      </c>
+      <c r="C115" s="33">
+        <v>15</v>
+      </c>
+      <c r="D115" s="33">
+        <v>20</v>
+      </c>
+      <c r="E115" s="34">
+        <v>75</v>
+      </c>
+      <c r="F115" s="33">
+        <v>65</v>
+      </c>
+      <c r="G115" s="33">
+        <v>10</v>
+      </c>
+      <c r="H115" s="33">
+        <v>15</v>
+      </c>
+      <c r="I115" s="34">
+        <v>90</v>
+      </c>
+      <c r="J115" s="33">
+        <v>40</v>
+      </c>
+      <c r="K115" s="33">
+        <v>5</v>
+      </c>
+      <c r="L115" s="33">
+        <v>25</v>
+      </c>
+      <c r="M115" s="34">
+        <f>J115+K115+L115</f>
+        <v>70</v>
+      </c>
+      <c r="N115">
+        <v>10</v>
+      </c>
+      <c r="O115">
+        <v>100</v>
+      </c>
+      <c r="P115" s="34">
+        <f>N115+O115</f>
+        <v>110</v>
+      </c>
+      <c r="Q115" s="33">
+        <f>E115+I115+M115+P115</f>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="14.25">
+      <c r="A116" s="33">
+        <v>114</v>
+      </c>
+      <c r="B116" s="33">
+        <v>5</v>
+      </c>
+      <c r="C116" s="33">
+        <v>20</v>
+      </c>
+      <c r="D116" s="33">
+        <v>15</v>
+      </c>
+      <c r="E116" s="34">
+        <v>40</v>
+      </c>
+      <c r="F116" s="33">
+        <v>55</v>
+      </c>
+      <c r="G116" s="33">
+        <v>5</v>
+      </c>
+      <c r="H116" s="33">
+        <v>15</v>
+      </c>
+      <c r="I116" s="34">
+        <v>75</v>
+      </c>
+      <c r="J116" s="33">
+        <v>15</v>
+      </c>
+      <c r="K116" s="33">
+        <v>100</v>
+      </c>
+      <c r="L116" s="33">
+        <v>20</v>
+      </c>
+      <c r="M116" s="34">
+        <f>J116+K116+L116</f>
+        <v>135</v>
+      </c>
+      <c r="N116">
+        <v>15</v>
+      </c>
+      <c r="O116">
+        <v>100</v>
+      </c>
+      <c r="P116" s="34">
+        <f>N116+O116</f>
+        <v>115</v>
+      </c>
+      <c r="Q116" s="33">
+        <f>E116+I116+M116+P116</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="14.25">
+      <c r="A117" s="33">
+        <v>115</v>
+      </c>
+      <c r="B117" s="33">
+        <v>5</v>
+      </c>
+      <c r="C117" s="33">
+        <v>10</v>
+      </c>
+      <c r="D117" s="33">
+        <v>20</v>
+      </c>
+      <c r="E117" s="34">
+        <v>35</v>
+      </c>
+      <c r="F117" s="33">
+        <v>30</v>
+      </c>
+      <c r="G117" s="33">
+        <v>5</v>
+      </c>
+      <c r="H117" s="33">
+        <v>15</v>
+      </c>
+      <c r="I117" s="34">
+        <v>50</v>
+      </c>
+      <c r="J117" s="33">
+        <v>40</v>
+      </c>
+      <c r="K117" s="33">
+        <v>30</v>
+      </c>
+      <c r="L117" s="33">
+        <v>25</v>
+      </c>
+      <c r="M117" s="34">
+        <f>J117+K117+L117</f>
+        <v>95</v>
+      </c>
+      <c r="N117">
+        <v>100</v>
+      </c>
+      <c r="O117">
+        <v>15</v>
+      </c>
+      <c r="P117" s="34">
+        <f>N117+O117</f>
+        <v>115</v>
+      </c>
+      <c r="Q117" s="33">
+        <f>E117+I117+M117+P117</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="14.25">
+      <c r="A118" s="33">
+        <v>116</v>
+      </c>
+      <c r="B118" s="33">
+        <v>35</v>
+      </c>
+      <c r="C118" s="33">
+        <v>15</v>
+      </c>
+      <c r="D118" s="33">
+        <v>15</v>
+      </c>
+      <c r="E118" s="34">
+        <v>65</v>
+      </c>
+      <c r="F118" s="33">
+        <v>35</v>
+      </c>
+      <c r="G118" s="33">
+        <v>15</v>
+      </c>
+      <c r="H118" s="33">
+        <v>15</v>
+      </c>
+      <c r="I118" s="34">
+        <v>65</v>
+      </c>
+      <c r="J118" s="33">
+        <v>10</v>
+      </c>
+      <c r="K118" s="33">
+        <v>10</v>
+      </c>
+      <c r="L118" s="33">
+        <v>75</v>
+      </c>
+      <c r="M118" s="34">
+        <f>J118+K118+L118</f>
+        <v>95</v>
+      </c>
+      <c r="N118">
+        <v>50</v>
+      </c>
+      <c r="O118">
+        <v>20</v>
+      </c>
+      <c r="P118" s="34">
+        <f>N118+O118</f>
+        <v>70</v>
+      </c>
+      <c r="Q118" s="33">
+        <f>E118+I118+M118+P118</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="14.25">
+      <c r="A119" s="33">
+        <v>117</v>
+      </c>
+      <c r="B119" s="33">
+        <v>20</v>
+      </c>
+      <c r="C119" s="33">
+        <v>100</v>
+      </c>
+      <c r="D119" s="33">
+        <v>15</v>
+      </c>
+      <c r="E119" s="34">
+        <v>135</v>
+      </c>
+      <c r="F119" s="33">
+        <v>30</v>
+      </c>
+      <c r="G119" s="33">
+        <v>15</v>
+      </c>
+      <c r="H119" s="33">
+        <v>40</v>
+      </c>
+      <c r="I119" s="34">
+        <v>85</v>
+      </c>
+      <c r="J119" s="33">
+        <v>40</v>
+      </c>
+      <c r="K119" s="33">
+        <v>20</v>
+      </c>
+      <c r="L119" s="33">
+        <v>55</v>
+      </c>
+      <c r="M119" s="34">
+        <f>J119+K119+L119</f>
+        <v>115</v>
+      </c>
+      <c r="N119">
+        <v>100</v>
+      </c>
+      <c r="O119">
+        <v>15</v>
+      </c>
+      <c r="P119" s="34">
+        <f>N119+O119</f>
+        <v>115</v>
+      </c>
+      <c r="Q119" s="33">
+        <f>E119+I119+M119+P119</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="14.25">
+      <c r="A120" s="33">
+        <v>118</v>
+      </c>
+      <c r="B120" s="33">
+        <v>35</v>
+      </c>
+      <c r="C120" s="33">
+        <v>35</v>
+      </c>
+      <c r="D120" s="33">
+        <v>10</v>
+      </c>
+      <c r="E120" s="34">
+        <v>80</v>
+      </c>
+      <c r="F120" s="33">
+        <v>20</v>
+      </c>
+      <c r="G120" s="33">
+        <v>100</v>
+      </c>
+      <c r="H120" s="33">
+        <v>20</v>
+      </c>
+      <c r="I120" s="34">
+        <v>140</v>
+      </c>
+      <c r="J120" s="33">
+        <v>25</v>
+      </c>
+      <c r="K120" s="33">
+        <v>100</v>
+      </c>
+      <c r="L120" s="33">
+        <v>65</v>
+      </c>
+      <c r="M120" s="34">
+        <f>J120+K120+L120</f>
+        <v>190</v>
+      </c>
+      <c r="N120">
+        <v>25</v>
+      </c>
+      <c r="O120">
+        <v>25</v>
+      </c>
+      <c r="P120" s="34">
+        <f>N120+O120</f>
+        <v>50</v>
+      </c>
+      <c r="Q120" s="33">
+        <f>E120+I120+M120+P120</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="14.25">
+      <c r="A121" s="33">
+        <v>119</v>
+      </c>
+      <c r="B121" s="33">
+        <v>15</v>
+      </c>
+      <c r="C121" s="33">
+        <v>15</v>
+      </c>
+      <c r="D121" s="33">
+        <v>100</v>
+      </c>
+      <c r="E121" s="34">
+        <v>130</v>
+      </c>
+      <c r="F121" s="33">
+        <v>75</v>
+      </c>
+      <c r="G121" s="33">
+        <v>65</v>
+      </c>
+      <c r="H121" s="33">
+        <v>40</v>
+      </c>
+      <c r="I121" s="34">
+        <v>180</v>
+      </c>
+      <c r="J121" s="33">
+        <v>35</v>
+      </c>
+      <c r="K121" s="33">
+        <v>60</v>
+      </c>
+      <c r="L121" s="33">
+        <v>80</v>
+      </c>
+      <c r="M121" s="34">
+        <f>J121+K121+L121</f>
+        <v>175</v>
+      </c>
+      <c r="N121">
+        <v>25</v>
+      </c>
+      <c r="O121">
+        <v>25</v>
+      </c>
+      <c r="P121" s="34">
+        <f>N121+O121</f>
+        <v>50</v>
+      </c>
+      <c r="Q121" s="33">
+        <f>E121+I121+M121+P121</f>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="14.25">
+      <c r="A122" s="33">
+        <v>120</v>
+      </c>
+      <c r="B122" s="33">
+        <v>25</v>
+      </c>
+      <c r="C122" s="33">
+        <v>30</v>
+      </c>
+      <c r="D122" s="33">
+        <v>20</v>
+      </c>
+      <c r="E122" s="34">
+        <v>75</v>
+      </c>
+      <c r="F122" s="33">
+        <v>100</v>
+      </c>
+      <c r="G122" s="33">
+        <v>50</v>
+      </c>
+      <c r="H122" s="33">
+        <v>100</v>
+      </c>
+      <c r="I122" s="34">
+        <v>250</v>
+      </c>
+      <c r="J122" s="33">
+        <v>100</v>
+      </c>
+      <c r="K122" s="33">
+        <v>100</v>
+      </c>
+      <c r="L122" s="33">
+        <v>50</v>
+      </c>
+      <c r="M122" s="34">
+        <f>J122+K122+L122</f>
+        <v>250</v>
+      </c>
+      <c r="N122">
+        <v>100</v>
+      </c>
+      <c r="O122">
+        <v>10</v>
+      </c>
+      <c r="P122" s="34">
+        <f>N122+O122</f>
+        <v>110</v>
+      </c>
+      <c r="Q122" s="33">
+        <f>E122+I122+M122+P122</f>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="14.25">
+      <c r="A123" s="33">
+        <v>121</v>
+      </c>
+      <c r="B123" s="33">
+        <v>60</v>
+      </c>
+      <c r="C123" s="33">
+        <v>25</v>
+      </c>
+      <c r="D123" s="33">
+        <v>15</v>
+      </c>
+      <c r="E123" s="34">
+        <v>100</v>
+      </c>
+      <c r="F123" s="33">
+        <v>100</v>
+      </c>
+      <c r="G123" s="33">
+        <v>40</v>
+      </c>
+      <c r="H123" s="33">
+        <v>65</v>
+      </c>
+      <c r="I123" s="34">
+        <v>205</v>
+      </c>
+      <c r="J123" s="33">
+        <v>100</v>
+      </c>
+      <c r="K123" s="33">
+        <v>100</v>
+      </c>
+      <c r="L123" s="33">
+        <v>5</v>
+      </c>
+      <c r="M123" s="34">
+        <f>J123+K123+L123</f>
+        <v>205</v>
+      </c>
+      <c r="N123">
+        <v>100</v>
+      </c>
+      <c r="O123">
+        <v>100</v>
+      </c>
+      <c r="P123" s="34">
+        <f>N123+O123</f>
+        <v>200</v>
+      </c>
+      <c r="Q123" s="33">
+        <f>E123+I123+M123+P123</f>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="14.25">
+      <c r="A124" s="33">
+        <v>122</v>
+      </c>
+      <c r="B124" s="33">
+        <v>50</v>
+      </c>
+      <c r="C124" s="33">
+        <v>25</v>
+      </c>
+      <c r="D124" s="33">
+        <v>10</v>
+      </c>
+      <c r="E124" s="34">
+        <v>85</v>
+      </c>
+      <c r="F124" s="33">
+        <v>15</v>
+      </c>
+      <c r="G124" s="33">
+        <v>25</v>
+      </c>
+      <c r="H124" s="33">
+        <v>20</v>
+      </c>
+      <c r="I124" s="34">
+        <v>60</v>
+      </c>
+      <c r="J124" s="33">
+        <v>65</v>
+      </c>
+      <c r="K124" s="33">
+        <v>100</v>
+      </c>
+      <c r="L124" s="33">
+        <v>100</v>
+      </c>
+      <c r="M124" s="34">
+        <f>J124+K124+L124</f>
+        <v>265</v>
+      </c>
+      <c r="N124">
+        <v>100</v>
+      </c>
+      <c r="O124">
+        <v>100</v>
+      </c>
+      <c r="P124" s="34">
+        <f>N124+O124</f>
+        <v>200</v>
+      </c>
+      <c r="Q124" s="33">
+        <f>E124+I124+M124+P124</f>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="14.25">
+      <c r="A125" s="33">
+        <v>123</v>
+      </c>
+      <c r="B125" s="33">
+        <v>100</v>
+      </c>
+      <c r="C125" s="33">
+        <v>40</v>
+      </c>
+      <c r="D125" s="33">
+        <v>15</v>
+      </c>
+      <c r="E125" s="34">
+        <v>155</v>
+      </c>
+      <c r="F125" s="33">
+        <v>30</v>
+      </c>
+      <c r="G125" s="33">
+        <v>85</v>
+      </c>
+      <c r="H125" s="33">
+        <v>15</v>
+      </c>
+      <c r="I125" s="34">
+        <v>130</v>
+      </c>
+      <c r="J125" s="33">
+        <v>100</v>
+      </c>
+      <c r="K125" s="33">
+        <v>100</v>
+      </c>
+      <c r="L125" s="33">
+        <v>100</v>
+      </c>
+      <c r="M125" s="34">
+        <f>J125+K125+L125</f>
+        <v>300</v>
+      </c>
+      <c r="N125">
+        <v>100</v>
+      </c>
+      <c r="O125">
+        <v>100</v>
+      </c>
+      <c r="P125" s="34">
+        <f>N125+O125</f>
+        <v>200</v>
+      </c>
+      <c r="Q125" s="33">
+        <f>E125+I125+M125+P125</f>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="14.25">
+      <c r="A126" s="33">
+        <v>124</v>
+      </c>
+      <c r="B126" s="33">
+        <v>100</v>
+      </c>
+      <c r="C126" s="33">
+        <v>100</v>
+      </c>
+      <c r="D126" s="33">
+        <v>100</v>
+      </c>
+      <c r="E126" s="34">
+        <v>300</v>
+      </c>
+      <c r="F126" s="33">
+        <v>100</v>
+      </c>
+      <c r="G126" s="33">
+        <v>100</v>
+      </c>
+      <c r="H126" s="33">
+        <v>100</v>
+      </c>
+      <c r="I126" s="34">
+        <v>300</v>
+      </c>
+      <c r="J126" s="33">
+        <v>100</v>
+      </c>
+      <c r="K126" s="33">
+        <v>100</v>
+      </c>
+      <c r="L126" s="33">
+        <v>100</v>
+      </c>
+      <c r="M126" s="34">
+        <f>J126+K126+L126</f>
+        <v>300</v>
+      </c>
+      <c r="N126">
+        <v>100</v>
+      </c>
+      <c r="O126">
+        <v>100</v>
+      </c>
+      <c r="P126" s="34">
+        <f>N126+O126</f>
+        <v>200</v>
+      </c>
+      <c r="Q126" s="33">
+        <f>E126+I126+M126+P126</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="33">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="33">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="33">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="33">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="33">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="33">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="33">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="33">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="33">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="33">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="33">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="33">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="248">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1070,6 +1066,82 @@
   </si>
   <si>
     <t>231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空、无插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS18B20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11F04E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色 8#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRF模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振荡器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MHz外部晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC12C5616AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色 带天线 无AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2路继电器模块（灯控）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1路30A继电器模块，控热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1路30A继电器模块，控小厨宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时1分40秒左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时3分钟左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +1255,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1208,8 +1280,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1276,13 +1354,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,18 +1473,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1391,11 +1494,35 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,6 +1530,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1434,7 +1567,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1886,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor indexed="41"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
@@ -1762,7 +1895,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="15" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="7.75" style="16" hidden="1" customWidth="1"/>
@@ -1775,69 +1908,88 @@
     <col min="13" max="13" width="7.75" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="6.875" style="15" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="6.875" style="15" customWidth="1"/>
-    <col min="19" max="19" width="35" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="263" width="4.5" style="5" customWidth="1"/>
-    <col min="264" max="16384" width="9" style="5"/>
+    <col min="19" max="19" width="17.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="27.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="266" width="4.5" style="5" customWidth="1"/>
+    <col min="267" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="30" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="R1" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="S1" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="40"/>
+    </row>
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
@@ -1850,19 +2002,34 @@
       <c r="H2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="26"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="I2" s="27"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z2" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1876,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>21</v>
@@ -1897,13 +2064,13 @@
         <v>26</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1914,16 +2081,16 @@
         <v>19</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>23</v>
@@ -1938,13 +2105,13 @@
         <v>26</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1974,7 +2141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1">
+    <row r="6" spans="1:26" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -2004,7 +2171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1">
+    <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -2052,13 +2219,16 @@
         <v>47</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1">
+        <v>228</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -2081,7 +2251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1">
+    <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -2108,34 +2278,34 @@
         <v>54</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="M9" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="N9" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="O9" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>191</v>
-      </c>
       <c r="P9" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -2162,30 +2332,33 @@
         <v>55</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="K11" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
+        <v>193</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -2209,45 +2382,46 @@
         <v>4</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>59</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="L12" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="M12" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="N12" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="O12" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="P12" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="P12" s="15" t="s">
-        <v>205</v>
-      </c>
       <c r="Q12" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1">
+        <v>228</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>19</v>
@@ -2266,10 +2440,10 @@
         <v>4</v>
       </c>
       <c r="I13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="K13" s="15">
         <v>41</v>
@@ -2278,27 +2452,27 @@
         <v>36</v>
       </c>
       <c r="M13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="O13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="P13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="Q13" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>60</v>
@@ -2317,16 +2491,16 @@
         <v>7</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="K14" s="15">
         <v>51</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>44</v>
@@ -2338,21 +2512,21 @@
         <v>46</v>
       </c>
       <c r="P14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>19</v>
@@ -2371,16 +2545,16 @@
         <v>5</v>
       </c>
       <c r="I15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="K15" s="15">
         <v>52</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>44</v>
@@ -2392,21 +2566,21 @@
         <v>46</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>61</v>
@@ -2425,16 +2599,16 @@
         <v>3</v>
       </c>
       <c r="I16" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K16" s="15">
         <v>53</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>44</v>
@@ -2449,18 +2623,18 @@
         <v>24</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>61</v>
@@ -2479,24 +2653,24 @@
         <v>4</v>
       </c>
       <c r="I17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="K17" s="15">
         <v>54</v>
       </c>
       <c r="L17" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>61</v>
@@ -2515,36 +2689,36 @@
         <v>2</v>
       </c>
       <c r="I18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="K18" s="15">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1">
+    <row r="19" spans="1:26" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="J19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>43</v>
@@ -2559,21 +2733,21 @@
         <v>46</v>
       </c>
       <c r="P19" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>19</v>
@@ -2589,21 +2763,21 @@
         <v>1</v>
       </c>
       <c r="I20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="K20" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>61</v>
@@ -2619,18 +2793,18 @@
         <v>4</v>
       </c>
       <c r="I21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="K21" s="15">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1">
+    <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>60</v>
@@ -2652,16 +2826,16 @@
         <v>5</v>
       </c>
       <c r="I22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="K22" s="15">
         <v>82</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M22" s="15" t="s">
         <v>44</v>
@@ -2673,21 +2847,21 @@
         <v>46</v>
       </c>
       <c r="P22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>53</v>
@@ -2703,21 +2877,21 @@
         <v>1</v>
       </c>
       <c r="I23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="K23" s="15">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1">
+    <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>19</v>
@@ -2733,21 +2907,21 @@
         <v>1</v>
       </c>
       <c r="I24" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="K24" s="15">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1">
+    <row r="25" spans="1:26" ht="15" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>19</v>
@@ -2763,42 +2937,60 @@
         <v>2</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K25" s="15">
         <v>91</v>
       </c>
       <c r="L25" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" s="15" t="s">
+      <c r="Q25" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="U25" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>61</v>
@@ -2817,16 +3009,16 @@
         <v>5</v>
       </c>
       <c r="I26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="K26" s="15">
         <v>92</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="M26" s="15" t="s">
         <v>44</v>
@@ -2841,18 +3033,39 @@
         <v>44</v>
       </c>
       <c r="Q26" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="U26" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="V26" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="W26" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="R26" s="15" t="s">
+      <c r="X26" s="5" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1">
+      <c r="Y26" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>61</v>
@@ -2868,18 +3081,18 @@
         <v>4</v>
       </c>
       <c r="I27" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="K27" s="15">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1">
+    <row r="28" spans="1:26" ht="15" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>60</v>
@@ -2901,21 +3114,21 @@
         <v>5</v>
       </c>
       <c r="I28" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="K28" s="15">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1">
+    <row r="29" spans="1:26" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>61</v>
@@ -2931,21 +3144,21 @@
         <v>1</v>
       </c>
       <c r="I29" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="K29" s="15">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1">
+    <row r="30" spans="1:26" ht="15" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>19</v>
@@ -2961,21 +3174,21 @@
         <v>1</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K30" s="15">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1">
+    <row r="31" spans="1:26" ht="15" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>19</v>
@@ -2994,52 +3207,58 @@
         <v>4</v>
       </c>
       <c r="I31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="K31" s="15">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:26">
       <c r="J32" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="L32" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="M32" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="M32" s="15" t="s">
+      <c r="N32" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="P32" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="N32" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>212</v>
-      </c>
       <c r="Q32" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="L1:L2"/>
@@ -3048,8 +3267,6 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3082,10 +3299,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3102,7 +3319,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3119,7 +3336,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3133,10 +3350,10 @@
     </row>
     <row r="4" spans="1:11" ht="84">
       <c r="A4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3150,10 +3367,10 @@
     </row>
     <row r="5" spans="1:11" ht="120">
       <c r="A5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3167,10 +3384,10 @@
     </row>
     <row r="6" spans="1:11" ht="84">
       <c r="A6" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3215,80 +3432,80 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
       <c r="J1" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="N1" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="O2" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="O2" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>220</v>
-      </c>
       <c r="Q2" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.25">
@@ -8705,7 +8922,7 @@
         <v>15</v>
       </c>
       <c r="M99" s="23">
-        <f t="shared" ref="M99:M130" si="9">J99+K99+L99</f>
+        <f t="shared" ref="M99:M126" si="9">J99+K99+L99</f>
         <v>50</v>
       </c>
       <c r="N99">
@@ -8715,11 +8932,11 @@
         <v>100</v>
       </c>
       <c r="P99" s="23">
-        <f t="shared" ref="P99:P130" si="10">N99+O99</f>
+        <f t="shared" ref="P99:P126" si="10">N99+O99</f>
         <v>125</v>
       </c>
       <c r="Q99" s="22">
-        <f t="shared" ref="Q99:Q130" si="11">E99+I99+M99+P99</f>
+        <f t="shared" ref="Q99:Q126" si="11">E99+I99+M99+P99</f>
         <v>305</v>
       </c>
     </row>
@@ -10237,7 +10454,7 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -10369,38 +10586,38 @@
   <sheetData>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="12">
         <v>41565</v>
@@ -10414,35 +10631,35 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="12">
         <v>8925</v>
@@ -10456,35 +10673,35 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="12">
         <v>57375</v>
@@ -10498,35 +10715,35 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="13">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="12">
         <v>26775</v>
@@ -10540,7 +10757,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="13">
         <v>1</v>
@@ -10554,21 +10771,21 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="12">
         <v>12495</v>
@@ -10582,7 +10799,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="13">
         <v>4</v>
@@ -10594,26 +10811,26 @@
         <v>6</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="12">
         <v>4335</v>
@@ -10627,7 +10844,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="13">
         <v>7</v>
@@ -10641,21 +10858,21 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="12">
         <v>17085</v>

--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="253">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,9 +298,6 @@
   <si>
     <t>控制电视背景墙插座</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>51</t>
@@ -1121,10 +1118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红色 带天线 无AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2路继电器模块（灯控）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1142,6 +1135,34 @@
   </si>
   <si>
     <t>延时3分钟左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西墙暗盒(电视背景墙）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11F04E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色，板载天线，无AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8路继电器模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色 胶棒天线 无AP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1473,8 +1494,32 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1494,35 +1539,11 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1567,7 +1588,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,8 +1909,8 @@
   </sheetPr>
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1910,8 +1931,8 @@
     <col min="17" max="18" width="6.875" style="15" customWidth="1"/>
     <col min="19" max="19" width="17.25" style="19" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="13.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.125" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="27.875" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="266" width="4.5" style="5" customWidth="1"/>
     <col min="267" max="16384" width="9" style="5"/>
@@ -1924,10 +1945,10 @@
       <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="32" t="s">
@@ -1936,60 +1957,60 @@
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="R1" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="V1" s="25" t="s">
+      <c r="S1" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="W1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="W1" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="40"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
@@ -2002,30 +2023,30 @@
       <c r="H2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="41" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Y2" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z2" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2043,7 +2064,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>21</v>
@@ -2064,10 +2085,10 @@
         <v>26</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
@@ -2081,16 +2102,16 @@
         <v>19</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>23</v>
@@ -2105,10 +2126,10 @@
         <v>26</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
@@ -2219,13 +2240,13 @@
         <v>47</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
@@ -2278,31 +2299,31 @@
         <v>54</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K9" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="M9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="N9" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="O9" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>190</v>
-      </c>
       <c r="P9" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
@@ -2332,7 +2353,7 @@
         <v>55</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
@@ -2340,22 +2361,22 @@
         <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="K11" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
@@ -2382,34 +2403,34 @@
         <v>4</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>59</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L12" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="N12" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="O12" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="P12" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="P12" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="Q12" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -2464,10 +2485,10 @@
         <v>69</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
@@ -2475,7 +2496,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>61</v>
@@ -2500,7 +2521,7 @@
         <v>51</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>44</v>
@@ -2512,13 +2533,34 @@
         <v>46</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>228</v>
+        <v>246</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
@@ -2526,7 +2568,7 @@
         <v>70</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>19</v>
@@ -2545,16 +2587,16 @@
         <v>5</v>
       </c>
       <c r="I15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="K15" s="15">
         <v>52</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>44</v>
@@ -2566,13 +2608,13 @@
         <v>46</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
@@ -2580,7 +2622,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>61</v>
@@ -2599,16 +2641,16 @@
         <v>3</v>
       </c>
       <c r="I16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="K16" s="15">
         <v>53</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>44</v>
@@ -2623,10 +2665,10 @@
         <v>24</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1">
@@ -2634,7 +2676,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>61</v>
@@ -2653,24 +2695,24 @@
         <v>4</v>
       </c>
       <c r="I17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="K17" s="15">
         <v>54</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>61</v>
@@ -2689,10 +2731,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="K18" s="15">
         <v>61</v>
@@ -2700,25 +2742,25 @@
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="J19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>43</v>
@@ -2733,21 +2775,21 @@
         <v>46</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>19</v>
@@ -2763,21 +2805,21 @@
         <v>1</v>
       </c>
       <c r="I20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>61</v>
@@ -2793,10 +2835,10 @@
         <v>4</v>
       </c>
       <c r="I21" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="K21" s="15">
         <v>81</v>
@@ -2804,7 +2846,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>60</v>
@@ -2826,16 +2868,16 @@
         <v>5</v>
       </c>
       <c r="I22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="K22" s="15">
         <v>82</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M22" s="15" t="s">
         <v>44</v>
@@ -2847,21 +2889,21 @@
         <v>46</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>53</v>
@@ -2877,10 +2919,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="K23" s="15">
         <v>83</v>
@@ -2888,10 +2930,10 @@
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>19</v>
@@ -2907,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="I24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="K24" s="15">
         <v>84</v>
@@ -2918,10 +2960,10 @@
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>19</v>
@@ -2937,16 +2979,16 @@
         <v>2</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K25" s="15">
         <v>91</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M25" s="15" t="s">
         <v>66</v>
@@ -2958,39 +3000,39 @@
         <v>68</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R25" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T25" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="U25" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y25" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="U25" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="V25" s="19" t="s">
+      <c r="Z25" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>61</v>
@@ -3009,16 +3051,16 @@
         <v>5</v>
       </c>
       <c r="I26" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="K26" s="15">
         <v>92</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M26" s="15" t="s">
         <v>44</v>
@@ -3033,39 +3075,39 @@
         <v>44</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>66</v>
       </c>
       <c r="T26" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="U26" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="V26" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="U26" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="V26" s="19" t="s">
-        <v>233</v>
-      </c>
       <c r="W26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z26" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y26" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>61</v>
@@ -3081,10 +3123,10 @@
         <v>4</v>
       </c>
       <c r="I27" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="K27" s="15">
         <v>101</v>
@@ -3092,7 +3134,7 @@
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>60</v>
@@ -3114,10 +3156,10 @@
         <v>5</v>
       </c>
       <c r="I28" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="K28" s="15">
         <v>102</v>
@@ -3125,10 +3167,10 @@
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>61</v>
@@ -3144,10 +3186,10 @@
         <v>1</v>
       </c>
       <c r="I29" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="K29" s="15">
         <v>103</v>
@@ -3155,10 +3197,10 @@
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>19</v>
@@ -3174,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K30" s="15">
         <v>104</v>
@@ -3185,10 +3227,10 @@
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>19</v>
@@ -3207,10 +3249,10 @@
         <v>4</v>
       </c>
       <c r="I31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="K31" s="15">
         <v>111</v>
@@ -3218,45 +3260,35 @@
     </row>
     <row r="32" spans="1:26">
       <c r="J32" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="L32" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="M32" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="M32" s="15" t="s">
+      <c r="N32" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="P32" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="N32" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>211</v>
-      </c>
       <c r="Q32" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="P1:P2"/>
@@ -3267,6 +3299,16 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3299,10 +3341,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -3319,7 +3361,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3336,7 +3378,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3350,10 +3392,10 @@
     </row>
     <row r="4" spans="1:11" ht="84">
       <c r="A4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3367,10 +3409,10 @@
     </row>
     <row r="5" spans="1:11" ht="120">
       <c r="A5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3384,10 +3426,10 @@
     </row>
     <row r="6" spans="1:11" ht="84">
       <c r="A6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3431,81 +3473,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="O2" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>219</v>
-      </c>
       <c r="Q2" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.25">
@@ -10454,7 +10496,7 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -10586,38 +10628,38 @@
   <sheetData>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="12">
         <v>41565</v>
@@ -10631,35 +10673,35 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="12">
         <v>8925</v>
@@ -10673,35 +10715,35 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="12">
         <v>57375</v>
@@ -10715,35 +10757,35 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="13">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="12">
         <v>26775</v>
@@ -10757,7 +10799,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="13">
         <v>1</v>
@@ -10771,21 +10813,21 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="12">
         <v>12495</v>
@@ -10799,7 +10841,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="13">
         <v>4</v>
@@ -10811,26 +10853,26 @@
         <v>6</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="12">
         <v>4335</v>
@@ -10844,7 +10886,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" s="13">
         <v>7</v>
@@ -10858,21 +10900,21 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="12">
         <v>17085</v>

--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="10635" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="10635" windowHeight="12720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="节点" sheetId="1" r:id="rId1"/>
     <sheet name="说明" sheetId="2" r:id="rId2"/>
     <sheet name="通讯频道" sheetId="5" r:id="rId3"/>
     <sheet name="红外遥控器键值" sheetId="4" r:id="rId4"/>
+    <sheet name="初始延时" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">节点!$A$1:$P$31</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="260">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1163,6 +1164,34 @@
   </si>
   <si>
     <t>红色 胶棒天线 无AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光敏电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11F04E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色 3#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM2321</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1418,7 +1447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,6 +1572,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1909,8 +1941,8 @@
   </sheetPr>
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2706,6 +2738,27 @@
       <c r="L17" s="15" t="s">
         <v>84</v>
       </c>
+      <c r="T17" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="U17" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
@@ -3019,6 +3072,12 @@
       </c>
       <c r="V25" s="19" t="s">
         <v>252</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="Y25" s="5" t="s">
         <v>241</v>
@@ -10932,4 +10991,214 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="9.625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="12">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="12">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="10635" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="10635" windowHeight="12720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="节点" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="通讯频道" sheetId="5" r:id="rId3"/>
     <sheet name="红外遥控器键值" sheetId="4" r:id="rId4"/>
     <sheet name="初始延时" sheetId="6" r:id="rId5"/>
+    <sheet name="功能号" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">节点!$A$1:$P$31</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="294">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1258,6 +1259,79 @@
     <t>182</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>功能号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function Number，指在通讯中，说明本帧数据的功能。
+1-定时状态报告。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时状态报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般用于各个节点定时的向Pi发送当前状态的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求立即报告状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于Pi向各个节点发送命令，收到本命令的节点要立即回报自己的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回报状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置命令，无需返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N.A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置命令，立即返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于Pi向各个节点发送命令，不要求返回命令执行后的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于Pi向各个节点发送命令，并要求返回命令执行后的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于响应22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不实施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于响应50号请求，回报当前节点状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1267,7 +1341,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1362,8 +1436,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1391,6 +1478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,7 +1598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1563,59 +1656,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1634,6 +1679,72 @@
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1678,7 +1789,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,1423 +2110,1413 @@
   </sheetPr>
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.75" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.875" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.25" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.25" style="41" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" style="41" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.75" style="41" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="24.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="27" max="266" width="4.5" style="31" customWidth="1"/>
-    <col min="267" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="11.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="6" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="24.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="266" width="4.5" style="19" customWidth="1"/>
+    <col min="267" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="30"/>
-    </row>
-    <row r="2" spans="1:26" s="38" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:26" s="22" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="37" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="X2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="24">
         <f t="shared" ref="H5" si="0">E5+F5+G5</f>
         <v>1</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="24">
         <f t="shared" ref="H6:H31" si="1">E6+F6+G6</f>
         <v>4</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="23">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="24">
         <v>3</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="24">
         <v>1</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="23">
         <v>22</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="25" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="23">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="24">
         <v>4</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="24">
         <f>E9+F9+G9</f>
         <v>5</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="Q9" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="24">
         <v>4</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="19" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="24">
         <v>2</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M12" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="P12" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="Q12" s="39" t="s">
+      <c r="Q12" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="24">
         <v>2</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="23">
         <v>41</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="O13" s="39" t="s">
+      <c r="O13" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="Q13" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="24">
         <v>7</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="24">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="23">
         <v>51</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="T14" s="41" t="s">
+      <c r="T14" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="U14" s="41" t="s">
+      <c r="U14" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="V14" s="41" t="s">
+      <c r="V14" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="W14" s="31" t="s">
+      <c r="W14" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="X14" s="31" t="s">
+      <c r="X14" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="Y14" s="31" t="s">
+      <c r="Y14" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="Z14" s="31" t="s">
+      <c r="Z14" s="19" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="24">
         <v>3</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="23">
         <v>52</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="Q15" s="39" t="s">
+      <c r="Q15" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="24">
         <v>2</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="24">
         <v>1</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="23">
         <v>53</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="39" t="s">
+      <c r="Q16" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="24">
         <v>3</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="24">
         <v>1</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="23">
         <v>54</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="41" t="s">
+      <c r="T17" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="U17" s="41" t="s">
+      <c r="U17" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="V17" s="41" t="s">
+      <c r="V17" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="W17" s="31" t="s">
+      <c r="W17" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="X17" s="31" t="s">
+      <c r="X17" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="Y17" s="31" t="s">
+      <c r="Y17" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="Z17" s="31" t="s">
+      <c r="Z17" s="19" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="24">
         <v>1</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="24">
         <v>1</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="23">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="39" t="s">
+      <c r="O19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="39" t="s">
+      <c r="P19" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" s="39" t="s">
+      <c r="Q19" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="R19" s="39" t="s">
+      <c r="R19" s="23" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="24">
         <v>1</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="24">
         <v>4</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="23">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="24">
         <v>4</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="24">
         <v>1</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="23">
         <v>82</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="P22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q22" s="39" t="s">
+      <c r="Q22" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="23" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="24">
         <v>1</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="23">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="24">
         <v>1</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="23">
         <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15" customHeight="1">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="24">
         <v>2</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="23">
         <v>91</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="O25" s="39" t="s">
+      <c r="O25" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="Q25" s="39" t="s">
+      <c r="Q25" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="R25" s="39" t="s">
+      <c r="R25" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="S25" s="41" t="s">
+      <c r="S25" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="T25" s="41" t="s">
+      <c r="T25" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="U25" s="41" t="s">
+      <c r="U25" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="V25" s="41" t="s">
+      <c r="V25" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="W25" s="31" t="s">
+      <c r="W25" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="X25" s="31" t="s">
+      <c r="X25" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="Y25" s="31" t="s">
+      <c r="Y25" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="Z25" s="31" t="s">
+      <c r="Z25" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="24">
         <v>4</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="24">
         <v>1</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="23">
         <v>92</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="M26" s="39" t="s">
+      <c r="M26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="39" t="s">
+      <c r="P26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="39" t="s">
+      <c r="Q26" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="R26" s="39" t="s">
+      <c r="R26" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="T26" s="41" t="s">
+      <c r="T26" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="U26" s="41" t="s">
+      <c r="U26" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="V26" s="41" t="s">
+      <c r="V26" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="W26" s="31" t="s">
+      <c r="W26" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="X26" s="31" t="s">
+      <c r="X26" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="Y26" s="31" t="s">
+      <c r="Y26" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="Z26" s="31" t="s">
+      <c r="Z26" s="19" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="24">
         <v>4</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="23">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="24">
         <v>4</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="24">
         <v>1</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="23">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="24">
         <v>1</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="23">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="24">
         <v>1</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="23">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="24">
         <v>3</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="24">
         <v>1</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="23">
         <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="M32" s="39" t="s">
+      <c r="M32" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="N32" s="39" t="s">
+      <c r="N32" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="O32" s="39" t="s">
+      <c r="O32" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="P32" s="39" t="s">
+      <c r="P32" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="Q32" s="39" t="s">
+      <c r="Q32" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="R32" s="39" t="s">
+      <c r="R32" s="23" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="P1:P2"/>
@@ -3426,6 +3527,16 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3439,13 +3550,13 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3557,6 +3668,14 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="24">
+      <c r="A9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>277</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3590,29 +3709,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="13" t="s">
@@ -11055,8 +11174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11103,6 +11222,9 @@
       <c r="A7" s="10">
         <v>30</v>
       </c>
+      <c r="B7" s="10">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10">
@@ -11252,6 +11374,123 @@
     <row r="37" spans="1:1">
       <c r="A37" s="10">
         <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="7.75" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="65.125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="46">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="46">
+        <v>20</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="46">
+        <v>21</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="47">
+        <v>22</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="47">
+        <v>23</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="46">
+        <v>50</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="46">
+        <v>51</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="10635" windowHeight="12720" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="10635" windowHeight="12720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="节点" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="296">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,6 +1330,14 @@
   </si>
   <si>
     <t>用于响应50号请求，回报当前节点状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在节点出现错误、异常时，用于各个节点向Pi发送错误报告。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误、异常报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1680,29 +1688,26 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1722,29 +1727,32 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,7 +1797,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,78 +2148,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="35" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="29"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
     </row>
     <row r="2" spans="1:26" s="22" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="20" t="s">
         <v>116</v>
       </c>
@@ -2224,20 +2232,20 @@
       <c r="H2" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
       <c r="W2" s="21" t="s">
         <v>120</v>
       </c>
@@ -3517,6 +3525,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="P1:P2"/>
@@ -3527,16 +3545,6 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3709,29 +3717,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="13" t="s">
@@ -11174,7 +11182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -11385,111 +11393,122 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="65.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="7.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="65.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="28" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="46">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="29" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="46">
+    <row r="4" spans="1:4">
+      <c r="A4" s="30">
+        <v>9</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="30">
         <v>20</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B7" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C7" s="29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="46">
+    <row r="8" spans="1:4">
+      <c r="A8" s="30">
         <v>21</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B8" s="29" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="47">
+    <row r="9" spans="1:4">
+      <c r="A9" s="31">
         <v>22</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B9" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C9" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D9" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="47">
+    <row r="10" spans="1:4">
+      <c r="A10" s="31">
         <v>23</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B10" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C10" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D10" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="46">
+    <row r="16" spans="1:4">
+      <c r="A16" s="30">
         <v>50</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B16" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C16" s="29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="46">
+    <row r="17" spans="1:3">
+      <c r="A17" s="30">
         <v>51</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B17" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C17" s="29" t="s">
         <v>293</v>
       </c>
     </row>

--- a/trunk/Docs/智能家节点.xlsx
+++ b/trunk/Docs/智能家节点.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="298">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1338,6 +1338,14 @@
   </si>
   <si>
     <t>错误、异常报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定事件报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般用于各个节点向Pi发送特定事件，比如有人/无人状态转换，开门/关门状态转换，亮度达到一定值，温度达到一定值，等等。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1706,8 +1714,29 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1726,27 +1755,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1797,7 +1805,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,78 +2156,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="34" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="44"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" s="22" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="20" t="s">
         <v>116</v>
       </c>
@@ -2232,20 +2240,20 @@
       <c r="H2" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
       <c r="W2" s="21" t="s">
         <v>120</v>
       </c>
@@ -3525,16 +3533,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="P1:P2"/>
@@ -3545,6 +3543,16 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11393,17 +11401,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.75" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="65.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.625" style="29" customWidth="1"/>
     <col min="4" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
@@ -11432,83 +11440,94 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="30">
+    <row r="3" spans="1:4">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="30">
         <v>9</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B5" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C5" s="29" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="30">
-        <v>20</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="30">
+        <v>20</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="30">
         <v>21</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B9" s="29" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="31">
-        <v>22</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="30">
-        <v>50</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>281</v>
+    <row r="11" spans="1:4">
+      <c r="A11" s="31">
+        <v>23</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="30">
+        <v>50</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="30">
         <v>51</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B18" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C18" s="29" t="s">
         <v>293</v>
       </c>
     </row>
